--- a/arvia/data/examples/example_result.xlsx
+++ b/arvia/data/examples/example_result.xlsx
@@ -564,7 +564,7 @@
     <col width="11.140625" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
     <col width="12.140625" customWidth="1" style="6" min="4" max="5"/>
     <col width="17.5703125" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="25.7109375" customWidth="1" style="6" min="7" max="232"/>
+    <col width="27.140625" customWidth="1" style="6" min="7" max="232"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>ST4518</t>
+          <t>ST995!; ST3136!</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="Q3" s="3" t="inlineStr">
         <is>
-          <t>Ile186Val (POLY), SerVal1041GluAla</t>
+          <t>Ile186Val (POLY); SerVal1041GluAla</t>
         </is>
       </c>
       <c r="R3" s="3" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AC3" s="3" t="inlineStr">
         <is>
-          <t>Phe2Leu, Gly52Ala, Glu69Asp, Gly135Ser, His194Arg</t>
+          <t>Phe2Leu; Gly52Ala; Glu69Asp; Gly135Ser; His194Arg</t>
         </is>
       </c>
       <c r="AD3" s="3" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="AI3" s="3" t="inlineStr">
         <is>
-          <t>Asp43Asn, SerGlySer57GluGlyArg, Glu202Gln, Ile210Ala, Glu230Lys, Ser240Thr, Asn262Thr, Ala267Ser, Lys296Gln, Gln301Glu, Arg310Gly, Val359Leu</t>
+          <t>Asp43Asn; SerGlySer57GluGlyArg; Glu202Gln; Ile210Ala; Glu230Lys; Ser240Thr; Asn262Thr; Ala267Ser; Lys296Gln; Gln301Glu; Arg310Gly; Val359Leu</t>
         </is>
       </c>
       <c r="AJ3" s="4" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="AQ3" s="3" t="inlineStr">
         <is>
-          <t>Pro156Leu, His398Arg (POLY)</t>
+          <t>Pro156Leu; His398Arg (POLY)</t>
         </is>
       </c>
       <c r="AR3" s="3" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="AT3" s="3" t="inlineStr">
         <is>
-          <t>Leu153Arg (POLY), Ser170Asn (POLY)</t>
+          <t>Leu153Arg (POLY); Ser170Asn (POLY)</t>
         </is>
       </c>
       <c r="AU3" s="3" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="AW3" s="3" t="inlineStr">
         <is>
-          <t>Val419Ala, Ile508Val, Val572Ala, Ser612Asn</t>
+          <t>Val419Ala; Ile508Val; Val572Ala; Ser612Asn</t>
         </is>
       </c>
       <c r="AX3" s="3" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="BC3" s="3" t="inlineStr">
         <is>
-          <t>Ala30Thr (POLY), Ile50Val, Lys329Gln (POLY), Leu331Val (POLY)</t>
+          <t>Ala30Thr (POLY); Ile50Val; Lys329Gln (POLY); Leu331Val (POLY)</t>
         </is>
       </c>
       <c r="BD3" s="3" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="BL3" s="3" t="inlineStr">
         <is>
-          <t>Ser26Leu, ArgHisCysProArg29GluHisCysProSer, Ile36Val, Glu42Asp</t>
+          <t>Ser26Leu; ArgHisCysProArg29GluHisCysProSer; Ile36Val; Glu42Asp</t>
         </is>
       </c>
       <c r="BM3" s="3" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="BO3" s="3" t="inlineStr">
         <is>
-          <t>Arg293Leu, Pro441Leu</t>
+          <t>Arg293Leu; Pro441Leu</t>
         </is>
       </c>
       <c r="BP3" s="3" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="BU3" s="3" t="inlineStr">
         <is>
-          <t>Pro26Leu, Ala190Thr, Pro304Ala, Ala432Val, Glu561Asp, Ala597Thr, Thr628Ala, Arg664His</t>
+          <t>Pro26Leu; Ala190Thr; Pro304Ala; Ala432Val; Glu561Asp; Ala597Thr; Thr628Ala; Arg664His</t>
         </is>
       </c>
       <c r="BV3" s="3" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="BX3" s="3" t="inlineStr">
         <is>
-          <t>Leu80Phe, Asn117Ser</t>
+          <t>Leu80Phe; Asn117Ser</t>
         </is>
       </c>
       <c r="BY3" s="3" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="CA3" s="3" t="inlineStr">
         <is>
-          <t>Leu29Pro, Gln148Arg, Ser285Gly</t>
+          <t>Leu29Pro; Gln148Arg; Ser285Gly</t>
         </is>
       </c>
       <c r="CB3" s="3" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="CD3" s="4" t="inlineStr">
         <is>
-          <t>Leu83Met, Arg228Gln, Phe268Leu, Glu288Arg, Val294Ala, Tyr299Phe, Asp324Gly, His333Arg, Ala343Ser, Val347Ala, Val490Leu, Leu508Val, possible_missing_feature</t>
+          <t>Leu83Met; Arg228Gln; Phe268Leu; Glu288Arg; Val294Ala; Tyr299Phe; Asp324Gly; His333Arg; Ala343Ser; Val347Ala; Val490Leu; Leu508Val; possible_missing_feature</t>
         </is>
       </c>
       <c r="CE3" s="4" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="CG3" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Leu14Ile, Ala86Thr, His159Gln</t>
+          <t>possible_missing_feature; Leu14Ile; Ala86Thr; His159Gln</t>
         </is>
       </c>
       <c r="CH3" s="4" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="CP3" s="4" t="inlineStr">
         <is>
-          <t>Gln80fs, Phe172Ile (POLY)</t>
+          <t>Gln80fs; Phe172Ile (POLY)</t>
         </is>
       </c>
       <c r="CQ3" s="4" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="CS3" s="3" t="inlineStr">
         <is>
-          <t>Ser8Phe (POLY), Asp353Glu (POLY)</t>
+          <t>Ser8Phe (POLY); Asp353Glu (POLY)</t>
         </is>
       </c>
       <c r="CT3" s="3" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="CV3" s="3" t="inlineStr">
         <is>
-          <t>Asp230Ala (POLY), Asp666Glu (POLY)</t>
+          <t>Asp230Ala (POLY); Asp666Glu (POLY)</t>
         </is>
       </c>
       <c r="CW3" s="3" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="CY3" s="3" t="inlineStr">
         <is>
-          <t>Ser13Pro (POLY), Ser77Asn (POLY), Ala365Val</t>
+          <t>Ser13Pro (POLY); Ser77Asn (POLY); Ala365Val</t>
         </is>
       </c>
       <c r="CZ3" s="3" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="DB3" s="3" t="inlineStr">
         <is>
-          <t>Asp604Gly, Leu612Phe</t>
+          <t>Asp604Gly; Leu612Phe</t>
         </is>
       </c>
       <c r="DC3" s="3" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="DH3" s="3" t="inlineStr">
         <is>
-          <t>Thr16Ser, Val159Ile, Ala344Ser</t>
+          <t>Thr16Ser; Val159Ile; Ala344Ser</t>
         </is>
       </c>
       <c r="DI3" s="3" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="DT3" s="3" t="inlineStr">
         <is>
-          <t>Gly71Glu (POLY), Ala186Thr (POLY)</t>
+          <t>Gly71Glu (POLY); Ala186Thr (POLY)</t>
         </is>
       </c>
       <c r="DU3" s="3" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="EL3" s="4" t="inlineStr">
         <is>
-          <t>Thr105Ala (POLY), Val205Leu (POLY), Pro243_Gly250del (Fails QC: 66.67%, 18x), Val356Ile (POLY), Gly391Ala (POLY)</t>
+          <t>Thr105Ala (POLY); Val205Leu (POLY); Pro243_Gly250del (Fails QC: 66.67%, 18x); Val356Ile (POLY); Gly391Ala (POLY)</t>
         </is>
       </c>
       <c r="EM3" s="4" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="EO3" s="3" t="inlineStr">
         <is>
-          <t>Gln9Leu, Ile30Val, Arg286His</t>
+          <t>Gln9Leu; Ile30Val; Arg286His</t>
         </is>
       </c>
       <c r="EP3" s="3" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="ER3" s="3" t="inlineStr">
         <is>
-          <t>Leu23Ser, Ile57Thr, Thr102Ala, His137Arg, Val166Leu</t>
+          <t>Leu23Ser; Ile57Thr; Thr102Ala; His137Arg; Val166Leu</t>
         </is>
       </c>
       <c r="ES3" s="3" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="EX3" s="3" t="inlineStr">
         <is>
-          <t>Met64Leu, Ala532Val, Val625Ala, Val960Ala, Ala972Thr, Leu1024Phe, Thr1174Ala, Asn1414Ser, Glu1489Asp, Arg1594Gly, Leu1597Ile, Arg1669Cys, Gln1672Leu, Val1686Gly, Gly1692Glu, Val1717Ala, Glu1738Ala, Arg1809Gln</t>
+          <t>Met64Leu; Ala532Val; Val625Ala; Val960Ala; Ala972Thr; Leu1024Phe; Thr1174Ala; Asn1414Ser; Glu1489Asp; Arg1594Gly; Leu1597Ile; Arg1669Cys; Gln1672Leu; Val1686Gly; Gly1692Glu; Val1717Ala; Glu1738Ala; Arg1809Gln</t>
         </is>
       </c>
       <c r="EY3" s="3" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="FA3" s="3" t="inlineStr">
         <is>
-          <t>Asp100Ala, Leu164Phe, Ser177Pro, Gly526Glu, Asn728Asp, Ser730Ala, Pro868Ala, Glu1207Ala, Ala1217Ser, His1344Asp, Val1423Ala</t>
+          <t>Asp100Ala; Leu164Phe; Ser177Pro; Gly526Glu; Asn728Asp; Ser730Ala; Pro868Ala; Glu1207Ala; Ala1217Ser; His1344Asp; Val1423Ala</t>
         </is>
       </c>
       <c r="FB3" s="3" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="FG3" s="3" t="inlineStr">
         <is>
-          <t>Val6Ala, Ser35Asn, Thr42Ala, Ala79Val, Ser260Gly, Asp270Asn, Ser302Asn</t>
+          <t>Val6Ala; Ser35Asn; Thr42Ala; Ala79Val; Ser260Gly; Asp270Asn; Ser302Asn</t>
         </is>
       </c>
       <c r="FH3" s="3" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="GK3" s="3" t="inlineStr">
         <is>
-          <t>Thr376Ser (POLY), Lys413Thr</t>
+          <t>Thr376Ser (POLY); Lys413Thr</t>
         </is>
       </c>
       <c r="GL3" s="3" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="GN3" s="3" t="inlineStr">
         <is>
-          <t>Glu257Gln (POLY), Val660Ile (POLY), Asn669Asp (POLY), Ile703Val (POLY), Ser845Ala (POLY), Ser915Ala, Ile982Val (POLY), Lys1031Arg (POLY), Ser1040Thr (POLY)</t>
+          <t>Glu257Gln (POLY); Val660Ile (POLY); Asn669Asp (POLY); Ile703Val (POLY); Ser845Ala (POLY); Ser915Ala; Ile982Val (POLY); Lys1031Arg (POLY); Ser1040Thr (POLY)</t>
         </is>
       </c>
       <c r="GO3" s="3" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="GQ3" s="3" t="inlineStr">
         <is>
-          <t>His310Arg (POLY), Ser330Ala (POLY)</t>
+          <t>His310Arg (POLY); Ser330Ala (POLY)</t>
         </is>
       </c>
       <c r="GR3" s="3" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="GZ3" s="3" t="inlineStr">
         <is>
-          <t>Ala236Thr, Tyr345His (POLY)</t>
+          <t>Ala236Thr; Tyr345His (POLY)</t>
         </is>
       </c>
       <c r="HA3" s="3" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="HC3" s="3" t="inlineStr">
         <is>
-          <t>Pro2Thr, Trp37Cys, Ala45Val, Asp53Gly, Gly61Ser, Glu104Val, AlaGly137ThrGlu, Asp307Asn, Thr661Ser, Gly705Asp</t>
+          <t>Pro2Thr; Trp37Cys; Ala45Val; Asp53Gly; Gly61Ser; Glu104Val; AlaGly137ThrGlu; Asp307Asn; Thr661Ser; Gly705Asp</t>
         </is>
       </c>
       <c r="HD3" s="3" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="HR3" s="3" t="inlineStr">
         <is>
-          <t>Leu88Pro (POLY), Asp161Gly (POLY), His182Gln (POLY), Val243Ala (POLY), Ala262Ser</t>
+          <t>Leu88Pro (POLY); Asp161Gly (POLY); His182Gln (POLY); Val243Ala (POLY); Ala262Ser</t>
         </is>
       </c>
       <c r="HS3" s="3" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Asn5Gln, Thr36Ser, Tyr57His, Thr110Ser, Ala236Pro, Glu239delinsSerGln, Glu248_Glu249delinsAsp, Ala285Val, Ala290Ser, Asn294Ser, Asn297Ser, Ala301Gln, Phe308Asn, Ile310Val, Gly356Asn, Ile424Leu, Leu464Ile, Met520Leu, Ile524Val, Arg541Lys, Gln552Glu, Ser674Ala, Ala685Gly, Asp723Glu, Ala730Asn, Gly732Thr, Ser737Thr, Asn760Thr, Ala800Ser</t>
+          <t>possible_missing_feature; Asn5Gln; Thr36Ser; Tyr57His; Thr110Ser; Ala236Pro; Glu239delinsSerGln; Glu248_Glu249delinsAsp; Ala285Val; Ala290Ser; Asn294Ser; Asn297Ser; Ala301Gln; Phe308Asn; Ile310Val; Gly356Asn; Ile424Leu; Leu464Ile; Met520Leu; Ile524Val; Arg541Lys; Gln552Glu; Ser674Ala; Ala685Gly; Asp723Glu; Ala730Asn; Gly732Thr; Ser737Thr; Asn760Thr; Ala800Ser</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Asp84Glu, Ala87Glu, Ala172Ser, Thr180Ser, Ala184Ser, Val190Ile</t>
+          <t>possible_missing_feature; Asp84Glu; Ala87Glu; Ala172Ser; Thr180Ser; Ala184Ser; Val190Ile</t>
         </is>
       </c>
       <c r="O4" s="4" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Glu55Gln, Met69Leu, Ile78Val, Val92Ala, AspPro99AsnAla, Ile102Thr, Gln112Asn, Glu152Asp, Ser155Ala, Ile162Met, Leu166Ile, Lys170Ala, Ser180Ala, Ser183Ala, SerTyr195LysPhe, Asn248Lys (POLY), Ile306Leu, AlaAsn311SerAsp, Gly397Ala, Ala421Ser, Met447Leu, Phe453Leu, Ala479Gly, Ile483Leu, Leu488Phe, Met555Leu, Thr557Ala, Asp566Glu, Pro580Ala, Thr613Asn, Glu635Asp, Ser670Ala, Leu682Val, SerLeu741ThrIle, Ser747Asn, Val749Leu, Trp753Leu, Ser755Ala, Tyr856Phe, Leu861Met, Phe925Tyr, Gln927Leu, Ser937Ala, Val974Ile, AlaIleSerThr988ThrIleAlaSer, Ser995Ala, ValThr1010IleSer</t>
+          <t>possible_missing_feature; Glu55Gln; Met69Leu; Ile78Val; Val92Ala; AspPro99AsnAla; Ile102Thr; Gln112Asn; Glu152Asp; Ser155Ala; Ile162Met; Leu166Ile; Lys170Ala; Ser180Ala; Ser183Ala; SerTyr195LysPhe; Asn248Lys (POLY); Ile306Leu; AlaAsn311SerAsp; Gly397Ala; Ala421Ser; Met447Leu; Phe453Leu; Ala479Gly; Ile483Leu; Leu488Phe; Met555Leu; Thr557Ala; Asp566Glu; Pro580Ala; Thr613Asn; Glu635Asp; Ser670Ala; Leu682Val; SerLeu741ThrIle; Ser747Asn; Val749Leu; Trp753Leu; Ser755Ala; Tyr856Phe; Leu861Met; Phe925Tyr; Gln927Leu; Ser937Ala; Val974Ile; AlaIleSerThr988ThrIleAlaSer; Ser995Ala; ValThr1010IleSer</t>
         </is>
       </c>
       <c r="R4" s="4" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Val87Ile, Glu88Asp, Phe90Tyr, Leu293Gln, Gln298Leu, Met300Lys, Ser305Asn, Ser346Gln, Thr353Asn, Arg358Lys, Ala364Ser, Gln374Lys, Ala378Thr, Ala387Ser</t>
+          <t>possible_missing_feature; Val87Ile; Glu88Asp; Phe90Tyr; Leu293Gln; Gln298Leu; Met300Lys; Ser305Asn; Ser346Gln; Thr353Asn; Arg358Lys; Ala364Ser; Gln374Lys; Ala378Thr; Ala387Ser</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Thr247Ala, Asp249Asn, Ser251Thr, AspGluGln260GluAspArg, Lys284Asn, Arg288Phe, Glu310Asp, Arg312Gln</t>
+          <t>possible_missing_feature; Thr247Ala; Asp249Asn; Ser251Thr; AspGluGln260GluAspArg; Lys284Asn; Arg288Phe; Glu310Asp; Arg312Gln</t>
         </is>
       </c>
       <c r="X4" s="4" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="AF4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, ProGluGlu153AlaGluAla, Val161Ile, Ala175Met</t>
+          <t>possible_missing_feature; ProGluGlu153AlaGluAla; Val161Ile; Ala175Met</t>
         </is>
       </c>
       <c r="AG4" s="4" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="AN4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Val1?, Val18Leu, Val274Ala, Gly279Ser, Gly289Asp</t>
+          <t>possible_missing_feature; Val1?; Val18Leu; Val274Ala; Gly279Ser; Gly289Asp</t>
         </is>
       </c>
       <c r="AO4" s="4" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="BI4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ser61Ala, His74Asn, ArgAsn77LysGly, Ile92Leu, ThrPheAla96SerPheSer, Val103Thr, Glu196Asp, AspLeu215GluLys, GlnAspGlyCys239AlaGluGlyAsn, Leu244Ile, Ser257Gly, TyrGluAsnLeu269PheGluAsnPhe, Thr275Ala, His279Tyr</t>
+          <t>possible_missing_feature; Ser61Ala; His74Asn; ArgAsn77LysGly; Ile92Leu; ThrPheAla96SerPheSer; Val103Thr; Glu196Asp; AspLeu215GluLys; GlnAspGlyCys239AlaGluGlyAsn; Leu244Ile; Ser257Gly; TyrGluAsnLeu269PheGluAsnPhe; Thr275Ala; His279Tyr</t>
         </is>
       </c>
       <c r="BJ4" s="4" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="BL4" s="4" t="inlineStr">
         <is>
-          <t>Gln225Asp, GlnVal228ArgGlu, Pro234Thr, Ala246Ser, possible_missing_feature</t>
+          <t>Gln225Asp; GlnVal228ArgGlu; Pro234Thr; Ala246Ser; possible_missing_feature</t>
         </is>
       </c>
       <c r="BM4" s="4" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="BU4" s="4" t="inlineStr">
         <is>
-          <t>Ser277Asn, Glu370Asp, Met417Leu, possible_missing_feature</t>
+          <t>Ser277Asn; Glu370Asp; Met417Leu; possible_missing_feature</t>
         </is>
       </c>
       <c r="BV4" s="4" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="BX4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Leu269Val</t>
+          <t>possible_missing_feature; Leu269Val</t>
         </is>
       </c>
       <c r="BY4" s="4" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="CJ4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Lys127Gln</t>
+          <t>possible_missing_feature; Lys127Gln</t>
         </is>
       </c>
       <c r="CK4" s="4" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="CP4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Pro43Ser, Pro48Ser, SerGlu51ProGln, AspPro59AsnAla, Thr64Ala, Arg69Cys, ArgGlu71GlyLys, Ala78fs, Thr92Asn, Thr109Ser, Gln113His, His118Leu, Asp201Ser</t>
+          <t>possible_missing_feature; Pro43Ser; Pro48Ser; SerGlu51ProGln; AspPro59AsnAla; Thr64Ala; Arg69Cys; ArgGlu71GlyLys; Ala78fs; Thr92Asn; Thr109Ser; Gln113His; His118Leu; Asp201Ser</t>
         </is>
       </c>
       <c r="CQ4" s="4" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="CS4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Glu101Gln, Lys105Arg, Phe221Tyr, Ser246Thr, Asp249Thr, ArgLeuAsp256GlnMetAsn, Leu260Val, Lys306Asn, Leu322Met, Gly324Lys, ThrVal328AlaAla, Thr332Ala, Met335Leu, Ser350Gly</t>
+          <t>possible_missing_feature; Glu101Gln; Lys105Arg; Phe221Tyr; Ser246Thr; Asp249Thr; ArgLeuAsp256GlnMetAsn; Leu260Val; Lys306Asn; Leu322Met; Gly324Lys; ThrVal328AlaAla; Thr332Ala; Met335Leu; Ser350Gly</t>
         </is>
       </c>
       <c r="CT4" s="4" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="CV4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, LeuIle20ValLeu, GlyGlyAla24AlaGlySer, Ser65Ala, Ser86Ala, Glu117Gln, Leu127Ile, Val161Ile, Val164Ile, Asp172Gly, Leu182Met, Val196Thr, Thr204Ser, Asn208Ala, Thr245Asn, Asn259Asp, Arg266Lys, Asn276Ser, Lys287Gln, Ala373Leu, MetLeu388LeuPhe, Val430Leu, Lys434Gln, Arg438Ser, IleProThr456ValProAla, Arg470Lys, Val511Arg, Arg523Ser, Gly654Ala, LysTyr663GlnPhe, Ser728Thr, Ile737Val, Asp740Ala, Ser754Thr, Ala769Thr, GluPro792AspAla, Val809Ile, Ser813Thr, Ile815Leu, Leu837Ile, ProAlaAla841AlaAlaPro, Gln851Glu, Tyr868Phe, Glu872Asp, Ala880Ser, Phe886Leu, LeuAlaGlySer929ValSerGlyGly, Lys963Glu, GluGlu965AlaLys, Met968Leu, ArgVal970ProLeu</t>
+          <t>possible_missing_feature; LeuIle20ValLeu; GlyGlyAla24AlaGlySer; Ser65Ala; Ser86Ala; Glu117Gln; Leu127Ile; Val161Ile; Val164Ile; Asp172Gly; Leu182Met; Val196Thr; Thr204Ser; Asn208Ala; Thr245Asn; Asn259Asp; Arg266Lys; Asn276Ser; Lys287Gln; Ala373Leu; MetLeu388LeuPhe; Val430Leu; Lys434Gln; Arg438Ser; IleProThr456ValProAla; Arg470Lys; Val511Arg; Arg523Ser; Gly654Ala; LysTyr663GlnPhe; Ser728Thr; Ile737Val; Asp740Ala; Ser754Thr; Ala769Thr; GluPro792AspAla; Val809Ile; Ser813Thr; Ile815Leu; Leu837Ile; ProAlaAla841AlaAlaPro; Gln851Glu; Tyr868Phe; Glu872Asp; Ala880Ser; Phe886Leu; LeuAlaGlySer929ValSerGlyGly; Lys963Glu; GluGlu965AlaLys; Met968Leu; ArgVal970ProLeu</t>
         </is>
       </c>
       <c r="CW4" s="4" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="CY4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ser53Thr, Ser139Met, Ala295Ser, Arg299Gln, Ser303Ala, Asp306Asn, Gly329Ala, AspAla370GluGly, Ser375Asn, Ala449Gly</t>
+          <t>possible_missing_feature; Ser53Thr; Ser139Met; Ala295Ser; Arg299Gln; Ser303Ala; Asp306Asn; Gly329Ala; AspAla370GluGly; Ser375Asn; Ala449Gly</t>
         </is>
       </c>
       <c r="CZ4" s="4" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="DB4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ser89Ala, Ile101Leu</t>
+          <t>possible_missing_feature; Ser89Ala; Ile101Leu</t>
         </is>
       </c>
       <c r="DC4" s="4" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="DE4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Phe77Val, Met85Leu, Tyr90Phe, Met256Leu, Ile307Val, Arg321Gln, Ile327Leu, AsnSer333ThrAsp, Gln341Arg, Arg353Lys, Arg360His</t>
+          <t>possible_missing_feature; Phe77Val; Met85Leu; Tyr90Phe; Met256Leu; Ile307Val; Arg321Gln; Ile327Leu; AsnSer333ThrAsp; Gln341Arg; Arg353Lys; Arg360His</t>
         </is>
       </c>
       <c r="DF4" s="4" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="DK4" s="4" t="inlineStr">
         <is>
-          <t>Lys18Arg, Thr83Ile, Met101Leu, Ala128Thr, Glu139His, Lys162Arg, Met198Ile, AspLeuThrVal202GluValThrIle, Tyr211His, Ser291Thr, Val304Ile, Gly314Pro, Ala323Gln, Gln342Arg, Thr345Leu, Met351Leu, Val354Ala, Tyr369Phe, Glu396Ala, Ser400Ala, Arg445His, Tyr450Phe, Glu461Asp, Ser477Ala, AsnLeu484GluGln, ThrAsnProAla494SerSerAlaGlu, Ser552Thr, Ala556Ser, Met573Val, Asp627Glu, Phe696Ser, Ser708Ala, Ser713Asn, Glu721Lys, Leu740Met, Ser743Asp, Ile757Glu, Arg769Lys, GlnLeu775ArgIle, Val819Gly, AsnGlu821LysGly, Ala826Leu, AlaAlaVal829GlyAlaIle, possible_missing_feature</t>
+          <t>Lys18Arg; Thr83Ile; Met101Leu; Ala128Thr; Glu139His; Lys162Arg; Met198Ile; AspLeuThrVal202GluValThrIle; Tyr211His; Ser291Thr; Val304Ile; Gly314Pro; Ala323Gln; Gln342Arg; Thr345Leu; Met351Leu; Val354Ala; Tyr369Phe; Glu396Ala; Ser400Ala; Arg445His; Tyr450Phe; Glu461Asp; Ser477Ala; AsnLeu484GluGln; ThrAsnProAla494SerSerAlaGlu; Ser552Thr; Ala556Ser; Met573Val; Asp627Glu; Phe696Ser; Ser708Ala; Ser713Asn; Glu721Lys; Leu740Met; Ser743Asp; Ile757Glu; Arg769Lys; GlnLeu775ArgIle; Val819Gly; AsnGlu821LysGly; Ala826Leu; AlaAlaVal829GlyAlaIle; possible_missing_feature</t>
         </is>
       </c>
       <c r="DL4" s="4" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="DN4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ile5Ser, Val14Ala, IleLeu18ValMet, Arg30Ser, Ser34fs, Leu37fs, Thr63Ala, Asp64Glu, Ser68Ala, MetLeu80LeuIle, IleMet91ValLeu, Glu97Gln, Ala115Thr, Met125Leu, SerGly149AlaAsn, Ser153Ala, Ala158Val, Ile164Val, Thr173Ala, Val200Ile, Thr255Met, Met258Ile, Ile286Met, Val289Ala, Ala327Ser, Ser408Thr, IleAla422ValThr, Gly426Thr, Ile430Leu, Ser525Gly, Thr578Asn, Thr582Asn, AsnAsnGlu584AspGlyAsp, Ala589Glu, Glu616Asp, Val619Leu, Thr648Asn, Ser657Asn, Arg659His, His665Arg, Glu672Asn, Tyr679Ser, Asp693Glu, Tyr711His, ThrPro717ArgAla, Thr720Ser, AlaTyr752ProPhe, Thr853Ser, Gln903Arg, Ile910Met, Ile916Val, Ala1052Ile</t>
+          <t>possible_missing_feature; Ile5Ser; Val14Ala; IleLeu18ValMet; Arg30Ser; Ser34fs; Leu37fs; Thr63Ala; Asp64Glu; Ser68Ala; MetLeu80LeuIle; IleMet91ValLeu; Glu97Gln; Ala115Thr; Met125Leu; SerGly149AlaAsn; Ser153Ala; Ala158Val; Ile164Val; Thr173Ala; Val200Ile; Thr255Met; Met258Ile; Ile286Met; Val289Ala; Ala327Ser; Ser408Thr; IleAla422ValThr; Gly426Thr; Ile430Leu; Ser525Gly; Thr578Asn; Thr582Asn; AsnAsnGlu584AspGlyAsp; Ala589Glu; Glu616Asp; Val619Leu; Thr648Asn; Ser657Asn; Arg659His; His665Arg; Glu672Asn; Tyr679Ser; Asp693Glu; Tyr711His; ThrPro717ArgAla; Thr720Ser; AlaTyr752ProPhe; Thr853Ser; Gln903Arg; Ile910Met; Ile916Val; Ala1052Ile</t>
         </is>
       </c>
       <c r="DO4" s="4" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="DZ4" s="4" t="inlineStr">
         <is>
-          <t>Gln58Glu, Lys76fs, Gly81fs, Leu88Pro, His94Asn, Ser112Thr, Ala198Ser, Leu203Phe, Leu237Met, Met248Leu, Ala260Ser, SerArgAsn278ThrGlnThr, Lys283Gln, Val359Ile, AsnAla362AspGly, Leu373Met, possible_missing_feature</t>
+          <t>Gln58Glu; Lys76fs; Gly81fs; Leu88Pro; His94Asn; Ser112Thr; Ala198Ser; Leu203Phe; Leu237Met; Met248Leu; Ala260Ser; SerArgAsn278ThrGlnThr; Lys283Gln; Val359Ile; AsnAla362AspGly; Leu373Met; possible_missing_feature</t>
         </is>
       </c>
       <c r="EA4" s="4" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="EC4" s="4" t="inlineStr">
         <is>
-          <t>Pro2Ser, His6Arg, Ile70Leu, Ile79Val, ThrIle89SerMet, Gln186Lys, Asn190Thr, Ile194Val, SerGlu213AspAla, Thr218Gln, Ile242Gln, Asp279Glu, Tyr289Phe, Thr296Lys, Tyr315Phe, Pro324Ala, Gln356Glu, Tyr370Ser, Val439Ala, Tyr441Phe, Ile476Asn, Asp485Glu, possible_missing_feature</t>
+          <t>Pro2Ser; His6Arg; Ile70Leu; Ile79Val; ThrIle89SerMet; Gln186Lys; Asn190Thr; Ile194Val; SerGlu213AspAla; Thr218Gln; Ile242Gln; Asp279Glu; Tyr289Phe; Thr296Lys; Tyr315Phe; Pro324Ala; Gln356Glu; Tyr370Ser; Val439Ala; Tyr441Phe; Ile476Asn; Asp485Glu; possible_missing_feature</t>
         </is>
       </c>
       <c r="ED4" s="4" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="EF4" s="4" t="inlineStr">
         <is>
-          <t>Gln43Glu, His57Gln, Glu59Asp, Leu71Met, His80Tyr, Thr118Ser, Gly144Ser, Gly151Asp, Arg177His, Ala199Ser, Glu243Val, Leu326Ile, Ala447Glu, Ala450_Glu451delinsLys, possible_missing_feature</t>
+          <t>Gln43Glu; His57Gln; Glu59Asp; Leu71Met; His80Tyr; Thr118Ser; Gly144Ser; Gly151Asp; Arg177His; Ala199Ser; Glu243Val; Leu326Ile; Ala447Glu; Ala450_Glu451delinsLys; possible_missing_feature</t>
         </is>
       </c>
       <c r="EG4" s="4" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="FJ4" s="4" t="inlineStr">
         <is>
-          <t>Val30Ile, ValAsn36LeuSer, Leu40Met, Glu156Gly, Lys160Asn, Val169Ile, Glu177Asp, Val180Gln, Met200Thr, Glu206Asp, Asn230Ser, Tyr285Phe, Ala336Val, Val342Phe, Ser344Thr, Leu350Ile, SerIleGlu399AsnAlaAsp, ValAla418LeuSer, Ser453Thr, Ile469Leu, Gly478Asn, Ala489Ser, Thr493Lys, Asp497Ser, Glu540Ala, Val548Ile, Thr580Ala, Lys614Val, Met631Leu, possible_missing_feature</t>
+          <t>Val30Ile; ValAsn36LeuSer; Leu40Met; Glu156Gly; Lys160Asn; Val169Ile; Glu177Asp; Val180Gln; Met200Thr; Glu206Asp; Asn230Ser; Tyr285Phe; Ala336Val; Val342Phe; Ser344Thr; Leu350Ile; SerIleGlu399AsnAlaAsp; ValAla418LeuSer; Ser453Thr; Ile469Leu; Gly478Asn; Ala489Ser; Thr493Lys; Asp497Ser; Glu540Ala; Val548Ile; Thr580Ala; Lys614Val; Met631Leu; possible_missing_feature</t>
         </is>
       </c>
       <c r="FK4" s="4" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="FM4" s="4" t="inlineStr">
         <is>
-          <t>Thr44Ser, Glu46Asp, Arg111Lys, Ile141Val, Ile315Leu, Leu322Met, LeuAspLeuLeuAla324ThrGluLeuLeuIle, Asn360Thr, Glu384Asp, Gly391Asn, Pro422Ser, Ile431Val, Asp432Glu, Ile507Val, Thr582Ala, Lys588Gln, AspSerLeuValThr601GluGlyValValSer, Glu607Asp, Val737Ile, ValValAla781LysValGln, Leu788Met, Val807Ile, Pro811Ala, Gln883Gly, Ser952Ala, Gln960Glu, Arg1011His, Asp1021Glu, Ala1033Gln, Ser1036Val, Gln1040Arg, Lys1074Arg, Ile1113Val, Asn1146Asp, Val1155Ala, Lys1160Val, His1163Thr, Ile1165Val, Glu1173Gln, Arg1226Val, Gln1235Lys, Thr1240Val, Ala1332Pro, Glu1353Asp, possible_missing_feature</t>
+          <t>Thr44Ser; Glu46Asp; Arg111Lys; Ile141Val; Ile315Leu; Leu322Met; LeuAspLeuLeuAla324ThrGluLeuLeuIle; Asn360Thr; Glu384Asp; Gly391Asn; Pro422Ser; Ile431Val; Asp432Glu; Ile507Val; Thr582Ala; Lys588Gln; AspSerLeuValThr601GluGlyValValSer; Glu607Asp; Val737Ile; ValValAla781LysValGln; Leu788Met; Val807Ile; Pro811Ala; Gln883Gly; Ser952Ala; Gln960Glu; Arg1011His; Asp1021Glu; Ala1033Gln; Ser1036Val; Gln1040Arg; Lys1074Arg; Ile1113Val; Asn1146Asp; Val1155Ala; Lys1160Val; His1163Thr; Ile1165Val; Glu1173Gln; Arg1226Val; Gln1235Lys; Thr1240Val; Ala1332Pro; Glu1353Asp; possible_missing_feature</t>
         </is>
       </c>
       <c r="FN4" s="4" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="FV4" s="4" t="inlineStr">
         <is>
-          <t>SerLeu21GlyMet, Val52Ile, Ala61Thr, Arg64Lys, possible_missing_feature</t>
+          <t>SerLeu21GlyMet; Val52Ile; Ala61Thr; Arg64Lys; possible_missing_feature</t>
         </is>
       </c>
       <c r="FW4" s="4" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="FY4" s="4" t="inlineStr">
         <is>
-          <t>Arg173His, Ile178Val, Phe182Tyr, Leu196Ile, Ile259Val, Thr263Val, Met286Ile, Phe299Ile, Ala306Gln, Asp317Glu, Thr322Ser, Lys348Asn, Ile354Met, Ser431Met, possible_missing_feature</t>
+          <t>Arg173His; Ile178Val; Phe182Tyr; Leu196Ile; Ile259Val; Thr263Val; Met286Ile; Phe299Ile; Ala306Gln; Asp317Glu; Thr322Ser; Lys348Asn; Ile354Met; Ser431Met; possible_missing_feature</t>
         </is>
       </c>
       <c r="FZ4" s="4" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="GE4" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ala168Gln, Ser172Ala</t>
+          <t>possible_missing_feature; Ala168Gln; Ser172Ala</t>
         </is>
       </c>
       <c r="GF4" s="4" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="GN4" s="4" t="inlineStr">
         <is>
-          <t>Ile45Val, Lys55Gln, Glu95Gln, Asp101Glu, GlnGlyLeuGlnVal125LeuGlyIleGlnThr, ThrSer132AlaThr, Ser181Ala, Phe198Tyr, Ser206Asn, Gly211Ala, Ala224Thr, Ala229Glu, Asp244Asn, Glu340Asp, His344Met, MetVal383ThrPhe, Lys438Gly, Val445Ile, Ser452Val, Leu458Met (Fails QC: 39.06%, 25x), Ala462Gln (Fails QC: 40.98%, 25x), Val474Leu (Fails QC: 50.85%, 30x), Leu476Met (Fails QC: 45.16%, 28x), Gly484Ala, Ala562Ser, Ala566Val (POLY), Leu569Gln, Leu726Val, Lys731Gln, Val824Ala, Ser892Ala, Ser896Thr (POLY), Ile903Val, Ile906Leu, MetValSerGlyMetSer913ThrAlaIleGlyLeuPro, possible_missing_feature</t>
+          <t>Ile45Val; Lys55Gln; Glu95Gln; Asp101Glu; GlnGlyLeuGlnVal125LeuGlyIleGlnThr; ThrSer132AlaThr; Ser181Ala; Phe198Tyr; Ser206Asn; Gly211Ala; Ala224Thr; Ala229Glu; Asp244Asn; Glu340Asp; His344Met; MetVal383ThrPhe; Lys438Gly; Val445Ile; Ser452Val; Leu458Met (Fails QC: 39.06%, 25x); Ala462Gln (Fails QC: 40.98%, 25x); Val474Leu (Fails QC: 50.85%, 30x); Leu476Met (Fails QC: 45.16%, 28x); Gly484Ala; Ala562Ser; Ala566Val (POLY); Leu569Gln; Leu726Val; Lys731Gln; Val824Ala; Ser892Ala; Ser896Thr (POLY); Ile903Val; Ile906Leu; MetValSerGlyMetSer913ThrAlaIleGlyLeuPro; possible_missing_feature</t>
         </is>
       </c>
       <c r="GO4" s="4" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="GQ4" s="4" t="inlineStr">
         <is>
-          <t>Gln134Asn, possible_missing_feature</t>
+          <t>Gln134Asn; possible_missing_feature</t>
         </is>
       </c>
       <c r="GR4" s="4" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="HF4" s="4" t="inlineStr">
         <is>
-          <t>Glu19Asp, Ser65Ala, Ser87Leu, Pro105Thr, Ser136Ala, Leu143Val, Asp159Gln, Leu171Ile, IleHis261ValThr, Ser271Ala, Gly279Ala, Thr302Cys, ValGlu315AlaAsp, Thr320Gln, Thr330Ser, Leu336Val, AspGln404GluHis, AlaVal408GlnAla, Met411Ile, Ser417Thr, Val419Ile, Asp426Glu, Glu445Asp, Ala489Glu, Arg494Lys, Thr499Asn, Ala528Thr, Pro543Ala, TyrAlaValPhe549PheAlaValLeu, Pro563Ala, Ser578Thr, Ser588Thr, PheValIle601TyrValVal, Ala627Gly, Asn734Ser, possible_missing_feature</t>
+          <t>Glu19Asp; Ser65Ala; Ser87Leu; Pro105Thr; Ser136Ala; Leu143Val; Asp159Gln; Leu171Ile; IleHis261ValThr; Ser271Ala; Gly279Ala; Thr302Cys; ValGlu315AlaAsp; Thr320Gln; Thr330Ser; Leu336Val; AspGln404GluHis; AlaVal408GlnAla; Met411Ile; Ser417Thr; Val419Ile; Asp426Glu; Glu445Asp; Ala489Glu; Arg494Lys; Thr499Asn; Ala528Thr; Pro543Ala; TyrAlaValPhe549PheAlaValLeu; Pro563Ala; Ser578Thr; Ser588Thr; PheValIle601TyrValVal; Ala627Gly; Asn734Ser; possible_missing_feature</t>
         </is>
       </c>
       <c r="HG4" s="4" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="HI4" s="4" t="inlineStr">
         <is>
-          <t>Thr29Ser, Lys52Arg, Gln60Ala, Asn62His, Ile67Ser, Pro84Ser, ArgValGlu124GlnValArg, Ala133Gly, Arg137Gln, Asp146Ala, Asp148Glu, Ile152Val, Thr154Ser, HisPheTrp165TyrPheSer, Ala176Pro, Val180Ile, Ala316Thr, Glu325Asp, GluHisAla359AlaHisPro, IleGlyLeu363LeuGlyMet, Gly382Ser, Glu407Asp, Met437Leu, Asp462Asn, Ser474Thr, Arg507Gln, Pro511Ala, Asp533Glu (POLY), Glu548Asp, Ala551Val, Leu573Pro, Met604Lys, Ser620Thr, possible_missing_feature</t>
+          <t>Thr29Ser; Lys52Arg; Gln60Ala; Asn62His; Ile67Ser; Pro84Ser; ArgValGlu124GlnValArg; Ala133Gly; Arg137Gln; Asp146Ala; Asp148Glu; Ile152Val; Thr154Ser; HisPheTrp165TyrPheSer; Ala176Pro; Val180Ile; Ala316Thr; Glu325Asp; GluHisAla359AlaHisPro; IleGlyLeu363LeuGlyMet; Gly382Ser; Glu407Asp; Met437Leu; Asp462Asn; Ser474Thr; Arg507Gln; Pro511Ala; Asp533Glu (POLY); Glu548Asp; Ala551Val; Leu573Pro; Met604Lys; Ser620Thr; possible_missing_feature</t>
         </is>
       </c>
       <c r="HJ4" s="4" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="HL4" s="4" t="inlineStr">
         <is>
-          <t>Ile41Leu, Ala50Val, Ala162Ser, Ser171Asn, Val179Phe, Phe184Leu, Leu194_Glu197delinsIleSerAsp, Ala203Thr, Arg207Lys, Ile216Val, Gly219Ala, Ile260Val, Gly288Val, Thr291Ala, Phe301Tyr, possible_missing_feature</t>
+          <t>Ile41Leu; Ala50Val; Ala162Ser; Ser171Asn; Val179Phe; Phe184Leu; Leu194_Glu197delinsIleSerAsp; Ala203Thr; Arg207Lys; Ile216Val; Gly219Ala; Ile260Val; Gly288Val; Thr291Ala; Phe301Tyr; possible_missing_feature</t>
         </is>
       </c>
       <c r="HM4" s="4" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Asn5Gln, Thr36Ser, Tyr57His, Thr110Ser, Ala236Pro, Glu239delinsSerGln, Glu248_Glu249delinsAsp, Ala285Val, Ala290Ser, Asn294Ser, Asn297Ser, Ala301Gln, Phe308Asn, Ile310Val, Gly356Asn, Ile424Leu, Leu464Ile, Met520Leu, Ile524Val, Arg541Lys, Gln552Glu, Ser674Ala, Ala685Gly, Asp723Glu, Ala730Asn, Gly732Thr, Ser737Thr, Asn760Thr, Ala800Ser</t>
+          <t>possible_missing_feature; Asn5Gln; Thr36Ser; Tyr57His; Thr110Ser; Ala236Pro; Glu239delinsSerGln; Glu248_Glu249delinsAsp; Ala285Val; Ala290Ser; Asn294Ser; Asn297Ser; Ala301Gln; Phe308Asn; Ile310Val; Gly356Asn; Ile424Leu; Leu464Ile; Met520Leu; Ile524Val; Arg541Lys; Gln552Glu; Ser674Ala; Ala685Gly; Asp723Glu; Ala730Asn; Gly732Thr; Ser737Thr; Asn760Thr; Ala800Ser</t>
         </is>
       </c>
       <c r="I5" s="7" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Asp84Glu, Ala87Glu, Ala172Ser, Thr180Ser, Ala184Ser, Val190Ile</t>
+          <t>possible_missing_feature; Asp84Glu; Ala87Glu; Ala172Ser; Thr180Ser; Ala184Ser; Val190Ile</t>
         </is>
       </c>
       <c r="O5" s="7" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Glu55Gln, Met69Leu, Ile78Val, Val92Ala, AspPro99AsnAla, Ile102Thr, Gln112Asn, Glu152Asp, Ser155Ala, Ile162Met, Leu166Ile, Lys170Ala, Ser180Ala, Ser183Ala, SerTyr195LysPhe, Asn248Lys (POLY), Ile306Leu, AlaAsn311SerAsp, Gly397Ala, Ala421Ser, Met447Leu, Phe453Leu, Ala479Gly, Ile483Leu, Leu488Phe, Met555Leu, Thr557Ala, Asp566Glu, Pro580Ala, Thr613Asn, Glu635Asp, Ser670Ala, Leu682Val, SerLeu741ThrIle, Ser747Asn, Val749Leu, Trp753Leu, Ser755Ala, Tyr856Phe, Leu861Met, Phe925Tyr, Gln927Leu, Ser937Ala, Val974Ile, AlaIleSerThr988ThrIleAlaSer, Ser995Ala, ValThr1010IleSer</t>
+          <t>possible_missing_feature; Glu55Gln; Met69Leu; Ile78Val; Val92Ala; AspPro99AsnAla; Ile102Thr; Gln112Asn; Glu152Asp; Ser155Ala; Ile162Met; Leu166Ile; Lys170Ala; Ser180Ala; Ser183Ala; SerTyr195LysPhe; Asn248Lys (POLY); Ile306Leu; AlaAsn311SerAsp; Gly397Ala; Ala421Ser; Met447Leu; Phe453Leu; Ala479Gly; Ile483Leu; Leu488Phe; Met555Leu; Thr557Ala; Asp566Glu; Pro580Ala; Thr613Asn; Glu635Asp; Ser670Ala; Leu682Val; SerLeu741ThrIle; Ser747Asn; Val749Leu; Trp753Leu; Ser755Ala; Tyr856Phe; Leu861Met; Phe925Tyr; Gln927Leu; Ser937Ala; Val974Ile; AlaIleSerThr988ThrIleAlaSer; Ser995Ala; ValThr1010IleSer</t>
         </is>
       </c>
       <c r="R5" s="7" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Val87Ile, Glu88Asp, Phe90Tyr, Leu293Gln, Gln298Leu, Met300Lys, Ser305Asn, Ser346Gln, Thr353Asn, Arg358Lys, Ala364Ser, Gln374Lys, Ala378Thr, Ala387Ser</t>
+          <t>possible_missing_feature; Val87Ile; Glu88Asp; Phe90Tyr; Leu293Gln; Gln298Leu; Met300Lys; Ser305Asn; Ser346Gln; Thr353Asn; Arg358Lys; Ala364Ser; Gln374Lys; Ala378Thr; Ala387Ser</t>
         </is>
       </c>
       <c r="U5" s="7" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Thr247Ala, Asp249Asn, Ser251Thr, AspGluGln260GluAspArg, Lys284Asn, Arg288Phe, Glu310Asp, Arg312Gln</t>
+          <t>possible_missing_feature; Thr247Ala; Asp249Asn; Ser251Thr; AspGluGln260GluAspArg; Lys284Asn; Arg288Phe; Glu310Asp; Arg312Gln</t>
         </is>
       </c>
       <c r="X5" s="7" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AF5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, ProGluGlu153AlaGluAla, Val161Ile, Ala175Met</t>
+          <t>possible_missing_feature; ProGluGlu153AlaGluAla; Val161Ile; Ala175Met</t>
         </is>
       </c>
       <c r="AG5" s="7" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="AN5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Val1?, Val18Leu, Val274Ala, Gly279Ser, Gly289Asp</t>
+          <t>possible_missing_feature; Val1?; Val18Leu; Val274Ala; Gly279Ser; Gly289Asp</t>
         </is>
       </c>
       <c r="AO5" s="7" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="BI5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ser61Ala, His74Asn, ArgAsn77LysGly, Ile92Leu, ThrPheAla96SerPheSer, Val103Thr, Glu196Asp, AspLeu215GluLys, GlnAspGlyCys239AlaGluGlyAsn, Leu244Ile, Ser257Gly, TyrGluAsnLeu269PheGluAsnPhe, Thr275Ala, His279Tyr</t>
+          <t>possible_missing_feature; Ser61Ala; His74Asn; ArgAsn77LysGly; Ile92Leu; ThrPheAla96SerPheSer; Val103Thr; Glu196Asp; AspLeu215GluLys; GlnAspGlyCys239AlaGluGlyAsn; Leu244Ile; Ser257Gly; TyrGluAsnLeu269PheGluAsnPhe; Thr275Ala; His279Tyr</t>
         </is>
       </c>
       <c r="BJ5" s="7" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="BL5" s="4" t="inlineStr">
         <is>
-          <t>Gln225Asp, GlnVal228ArgGlu, Pro234Thr, Ala246Ser, possible_missing_feature</t>
+          <t>Gln225Asp; GlnVal228ArgGlu; Pro234Thr; Ala246Ser; possible_missing_feature</t>
         </is>
       </c>
       <c r="BM5" s="7" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="BU5" s="4" t="inlineStr">
         <is>
-          <t>Ser277Asn, Glu370Asp, Met417Leu, possible_missing_feature</t>
+          <t>Ser277Asn; Glu370Asp; Met417Leu; possible_missing_feature</t>
         </is>
       </c>
       <c r="BV5" s="7" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="BX5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Leu269Val</t>
+          <t>possible_missing_feature; Leu269Val</t>
         </is>
       </c>
       <c r="BY5" s="7" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="CJ5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Lys127Gln</t>
+          <t>possible_missing_feature; Lys127Gln</t>
         </is>
       </c>
       <c r="CK5" s="7" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="CP5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Pro43Ser, Pro48Ser, SerGlu51ProGln, AspPro59AsnAla, Thr64Ala, Arg69Cys, ArgGlu71GlyLys, Ala78fs, Thr92Asn, Thr109Ser, Gln113His, His118Leu, Asp201Ser</t>
+          <t>possible_missing_feature; Pro43Ser; Pro48Ser; SerGlu51ProGln; AspPro59AsnAla; Thr64Ala; Arg69Cys; ArgGlu71GlyLys; Ala78fs; Thr92Asn; Thr109Ser; Gln113His; His118Leu; Asp201Ser</t>
         </is>
       </c>
       <c r="CQ5" s="7" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="CS5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Glu101Gln, Lys105Arg, Phe221Tyr, Ser246Thr, Asp249Thr, ArgLeuAsp256GlnMetAsn, Leu260Val, Lys306Asn, Leu322Met, Gly324Lys, ThrVal328AlaAla, Thr332Ala, Met335Leu, Ser350Gly</t>
+          <t>possible_missing_feature; Glu101Gln; Lys105Arg; Phe221Tyr; Ser246Thr; Asp249Thr; ArgLeuAsp256GlnMetAsn; Leu260Val; Lys306Asn; Leu322Met; Gly324Lys; ThrVal328AlaAla; Thr332Ala; Met335Leu; Ser350Gly</t>
         </is>
       </c>
       <c r="CT5" s="7" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="CV5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, LeuIle20ValLeu, GlyGlyAla24AlaGlySer, Ser65Ala, Ser86Ala, Glu117Gln, Leu127Ile, Val161Ile, Val164Ile, Asp172Gly, Leu182Met, Val196Thr, Thr204Ser, Asn208Ala, Thr245Asn, Asn259Asp, Arg266Lys, Asn276Ser, Lys287Gln, Ala373Leu, MetLeu388LeuPhe, Val430Leu, Lys434Gln, Arg438Ser, IleProThr456ValProAla, Arg470Lys, Val511Arg, Arg523Ser, Gly654Ala, LysTyr663GlnPhe, Ser728Thr, Ile737Val, Asp740Ala, Ser754Thr, Ala769Thr, GluPro792AspAla, Val809Ile, Ser813Thr, Ile815Leu, Leu837Ile, ProAlaAla841AlaAlaPro, Gln851Glu, Tyr868Phe, Glu872Asp, Ala880Ser, Phe886Leu, LeuAlaGlySer929ValSerGlyGly, Lys963Glu, GluGlu965AlaLys, Met968Leu, ArgVal970ProLeu</t>
+          <t>possible_missing_feature; LeuIle20ValLeu; GlyGlyAla24AlaGlySer; Ser65Ala; Ser86Ala; Glu117Gln; Leu127Ile; Val161Ile; Val164Ile; Asp172Gly; Leu182Met; Val196Thr; Thr204Ser; Asn208Ala; Thr245Asn; Asn259Asp; Arg266Lys; Asn276Ser; Lys287Gln; Ala373Leu; MetLeu388LeuPhe; Val430Leu; Lys434Gln; Arg438Ser; IleProThr456ValProAla; Arg470Lys; Val511Arg; Arg523Ser; Gly654Ala; LysTyr663GlnPhe; Ser728Thr; Ile737Val; Asp740Ala; Ser754Thr; Ala769Thr; GluPro792AspAla; Val809Ile; Ser813Thr; Ile815Leu; Leu837Ile; ProAlaAla841AlaAlaPro; Gln851Glu; Tyr868Phe; Glu872Asp; Ala880Ser; Phe886Leu; LeuAlaGlySer929ValSerGlyGly; Lys963Glu; GluGlu965AlaLys; Met968Leu; ArgVal970ProLeu</t>
         </is>
       </c>
       <c r="CW5" s="7" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="CY5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ser53Thr, Ser139Met, Ala295Ser, Arg299Gln, Ser303Ala, Asp306Asn, Gly329Ala, AspAla370GluGly, Ser375Asn, Ala449Gly</t>
+          <t>possible_missing_feature; Ser53Thr; Ser139Met; Ala295Ser; Arg299Gln; Ser303Ala; Asp306Asn; Gly329Ala; AspAla370GluGly; Ser375Asn; Ala449Gly</t>
         </is>
       </c>
       <c r="CZ5" s="7" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="DB5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ser89Ala, Ile101Leu</t>
+          <t>possible_missing_feature; Ser89Ala; Ile101Leu</t>
         </is>
       </c>
       <c r="DC5" s="7" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="DE5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Phe77Val, Met85Leu, Tyr90Phe, Met256Leu, Ile307Val, Arg321Gln, Ile327Leu, AsnSer333ThrAsp, Gln341Arg, Arg353Lys, Arg360His</t>
+          <t>possible_missing_feature; Phe77Val; Met85Leu; Tyr90Phe; Met256Leu; Ile307Val; Arg321Gln; Ile327Leu; AsnSer333ThrAsp; Gln341Arg; Arg353Lys; Arg360His</t>
         </is>
       </c>
       <c r="DF5" s="7" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="DK5" s="4" t="inlineStr">
         <is>
-          <t>Lys18Arg, Thr83Ile, Met101Leu, Ala128Thr, Glu139His, Lys162Arg, Met198Ile, AspLeuThrVal202GluValThrIle, Tyr211His, Ser291Thr, Val304Ile, Gly314Pro, Ala323Gln, Gln342Arg, Thr345Leu, Met351Leu, Val354Ala, Tyr369Phe, Glu396Ala, Ser400Ala, Arg445His, Tyr450Phe, Glu461Asp, Ser477Ala, AsnLeu484GluGln, ThrAsnProAla494SerSerAlaGlu, Ser552Thr, Ala556Ser, Met573Val, Asp627Glu, Phe696Ser, Ser708Ala, Ser713Asn, Glu721Lys, Leu740Met, Ser743Asp, Ile757Glu, Arg769Lys, GlnLeu775ArgIle, Val819Gly, AsnGlu821LysGly, Ala826Leu, AlaAlaVal829GlyAlaIle, possible_missing_feature</t>
+          <t>Lys18Arg; Thr83Ile; Met101Leu; Ala128Thr; Glu139His; Lys162Arg; Met198Ile; AspLeuThrVal202GluValThrIle; Tyr211His; Ser291Thr; Val304Ile; Gly314Pro; Ala323Gln; Gln342Arg; Thr345Leu; Met351Leu; Val354Ala; Tyr369Phe; Glu396Ala; Ser400Ala; Arg445His; Tyr450Phe; Glu461Asp; Ser477Ala; AsnLeu484GluGln; ThrAsnProAla494SerSerAlaGlu; Ser552Thr; Ala556Ser; Met573Val; Asp627Glu; Phe696Ser; Ser708Ala; Ser713Asn; Glu721Lys; Leu740Met; Ser743Asp; Ile757Glu; Arg769Lys; GlnLeu775ArgIle; Val819Gly; AsnGlu821LysGly; Ala826Leu; AlaAlaVal829GlyAlaIle; possible_missing_feature</t>
         </is>
       </c>
       <c r="DL5" s="7" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="DN5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ile5Ser, Val14Ala, IleLeu18ValMet, Arg30Ser, Ser34fs, Leu37fs, Thr63Ala, Asp64Glu, Ser68Ala, MetLeu80LeuIle, IleMet91ValLeu, Glu97Gln, Ala115Thr, Met125Leu, SerGly149AlaAsn, Ser153Ala, Ala158Val, Ile164Val, Thr173Ala, Val200Ile, Thr255Met, Met258Ile, Ile286Met, Val289Ala, Ala327Ser, Ser408Thr, IleAla422ValThr, Gly426Thr, Ile430Leu, Ser525Gly, Thr578Asn, Thr582Asn, AsnAsnGlu584AspGlyAsp, Ala589Glu, Glu616Asp, Val619Leu, Thr648Asn, Ser657Asn, Arg659His, His665Arg, Glu672Asn, Tyr679Ser, Asp693Glu, Tyr711His, ThrPro717ArgAla, Thr720Ser, AlaTyr752ProPhe, Thr853Ser, Gln903Arg, Ile910Met, Ile916Val, Ala1052Ile</t>
+          <t>possible_missing_feature; Ile5Ser; Val14Ala; IleLeu18ValMet; Arg30Ser; Ser34fs; Leu37fs; Thr63Ala; Asp64Glu; Ser68Ala; MetLeu80LeuIle; IleMet91ValLeu; Glu97Gln; Ala115Thr; Met125Leu; SerGly149AlaAsn; Ser153Ala; Ala158Val; Ile164Val; Thr173Ala; Val200Ile; Thr255Met; Met258Ile; Ile286Met; Val289Ala; Ala327Ser; Ser408Thr; IleAla422ValThr; Gly426Thr; Ile430Leu; Ser525Gly; Thr578Asn; Thr582Asn; AsnAsnGlu584AspGlyAsp; Ala589Glu; Glu616Asp; Val619Leu; Thr648Asn; Ser657Asn; Arg659His; His665Arg; Glu672Asn; Tyr679Ser; Asp693Glu; Tyr711His; ThrPro717ArgAla; Thr720Ser; AlaTyr752ProPhe; Thr853Ser; Gln903Arg; Ile910Met; Ile916Val; Ala1052Ile</t>
         </is>
       </c>
       <c r="DO5" s="7" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="DZ5" s="4" t="inlineStr">
         <is>
-          <t>Gln58Glu, Lys76fs, Gly81fs, Leu88Pro, His94Asn, Ser112Thr, Ala198Ser, Leu203Phe, Leu237Met, Met248Leu, Ala260Ser, SerArgAsn278ThrGlnThr, Lys283Gln, Val359Ile, AsnAla362AspGly, Leu373Met, possible_missing_feature</t>
+          <t>Gln58Glu; Lys76fs; Gly81fs; Leu88Pro; His94Asn; Ser112Thr; Ala198Ser; Leu203Phe; Leu237Met; Met248Leu; Ala260Ser; SerArgAsn278ThrGlnThr; Lys283Gln; Val359Ile; AsnAla362AspGly; Leu373Met; possible_missing_feature</t>
         </is>
       </c>
       <c r="EA5" s="7" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="EC5" s="4" t="inlineStr">
         <is>
-          <t>Pro2Ser, His6Arg, Ile70Leu, Ile79Val, ThrIle89SerMet, Gln186Lys, Asn190Thr, Ile194Val, SerGlu213AspAla, Thr218Gln, Ile242Gln, Asp279Glu, Tyr289Phe, Thr296Lys, Tyr315Phe, Pro324Ala, Gln356Glu, Tyr370Ser, Val439Ala, Tyr441Phe, Ile476Asn, Asp485Glu, possible_missing_feature</t>
+          <t>Pro2Ser; His6Arg; Ile70Leu; Ile79Val; ThrIle89SerMet; Gln186Lys; Asn190Thr; Ile194Val; SerGlu213AspAla; Thr218Gln; Ile242Gln; Asp279Glu; Tyr289Phe; Thr296Lys; Tyr315Phe; Pro324Ala; Gln356Glu; Tyr370Ser; Val439Ala; Tyr441Phe; Ile476Asn; Asp485Glu; possible_missing_feature</t>
         </is>
       </c>
       <c r="ED5" s="7" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="EF5" s="4" t="inlineStr">
         <is>
-          <t>Gln43Glu, His57Gln, Glu59Asp, Leu71Met, His80Tyr, Thr118Ser, Gly144Ser, Gly151Asp, Arg177His, Ala199Ser, Glu243Val, Leu326Ile, Ala447Glu, Ala450_Glu451delinsLys, possible_missing_feature</t>
+          <t>Gln43Glu; His57Gln; Glu59Asp; Leu71Met; His80Tyr; Thr118Ser; Gly144Ser; Gly151Asp; Arg177His; Ala199Ser; Glu243Val; Leu326Ile; Ala447Glu; Ala450_Glu451delinsLys; possible_missing_feature</t>
         </is>
       </c>
       <c r="EG5" s="7" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="FJ5" s="4" t="inlineStr">
         <is>
-          <t>Val30Ile, ValAsn36LeuSer, Leu40Met, Glu156Gly, Lys160Asn, Val169Ile, Glu177Asp, Val180Gln, Met200Thr, Glu206Asp, Asn230Ser, Tyr285Phe, Ala336Val, Val342Phe, Ser344Thr, Leu350Ile, SerIleGlu399AsnAlaAsp, ValAla418LeuSer, Ser453Thr, Ile469Leu, Gly478Asn, Ala489Ser, Thr493Lys, Asp497Ser, Glu540Ala, Val548Ile, Thr580Ala, Lys614Val, Met631Leu, possible_missing_feature</t>
+          <t>Val30Ile; ValAsn36LeuSer; Leu40Met; Glu156Gly; Lys160Asn; Val169Ile; Glu177Asp; Val180Gln; Met200Thr; Glu206Asp; Asn230Ser; Tyr285Phe; Ala336Val; Val342Phe; Ser344Thr; Leu350Ile; SerIleGlu399AsnAlaAsp; ValAla418LeuSer; Ser453Thr; Ile469Leu; Gly478Asn; Ala489Ser; Thr493Lys; Asp497Ser; Glu540Ala; Val548Ile; Thr580Ala; Lys614Val; Met631Leu; possible_missing_feature</t>
         </is>
       </c>
       <c r="FK5" s="7" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="FM5" s="4" t="inlineStr">
         <is>
-          <t>Thr44Ser, Glu46Asp, Arg111Lys, Ile141Val, Ile315Leu, Leu322Met, LeuAspLeuLeuAla324ThrGluLeuLeuIle, Asn360Thr, Glu384Asp, Gly391Asn, Pro422Ser, Ile431Val, Asp432Glu, Ile507Val, Thr582Ala, Lys588Gln, AspSerLeuValThr601GluGlyValValSer, Glu607Asp, Val737Ile, ValValAla781LysValGln, Leu788Met, Val807Ile, Pro811Ala, Gln883Gly, Ser952Ala, Gln960Glu, Arg1011His, Asp1021Glu, Ala1033Gln, Ser1036Val, Gln1040Arg, Lys1074Arg, Ile1113Val, Asn1146Asp, Val1155Ala, Lys1160Val, His1163Thr, Ile1165Val, Glu1173Gln, Arg1226Val, Gln1235Lys, Thr1240Val, Ala1332Pro, Glu1353Asp, possible_missing_feature</t>
+          <t>Thr44Ser; Glu46Asp; Arg111Lys; Ile141Val; Ile315Leu; Leu322Met; LeuAspLeuLeuAla324ThrGluLeuLeuIle; Asn360Thr; Glu384Asp; Gly391Asn; Pro422Ser; Ile431Val; Asp432Glu; Ile507Val; Thr582Ala; Lys588Gln; AspSerLeuValThr601GluGlyValValSer; Glu607Asp; Val737Ile; ValValAla781LysValGln; Leu788Met; Val807Ile; Pro811Ala; Gln883Gly; Ser952Ala; Gln960Glu; Arg1011His; Asp1021Glu; Ala1033Gln; Ser1036Val; Gln1040Arg; Lys1074Arg; Ile1113Val; Asn1146Asp; Val1155Ala; Lys1160Val; His1163Thr; Ile1165Val; Glu1173Gln; Arg1226Val; Gln1235Lys; Thr1240Val; Ala1332Pro; Glu1353Asp; possible_missing_feature</t>
         </is>
       </c>
       <c r="FN5" s="7" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="FV5" s="4" t="inlineStr">
         <is>
-          <t>SerLeu21GlyMet, Val52Ile, Ala61Thr, Arg64Lys, possible_missing_feature</t>
+          <t>SerLeu21GlyMet; Val52Ile; Ala61Thr; Arg64Lys; possible_missing_feature</t>
         </is>
       </c>
       <c r="FW5" s="7" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="FY5" s="4" t="inlineStr">
         <is>
-          <t>Arg173His, Ile178Val, Phe182Tyr, Leu196Ile, Ile259Val, Thr263Val, Met286Ile, Phe299Ile, Ala306Gln, Asp317Glu, Thr322Ser, Lys348Asn, Ile354Met, Ser431Met, possible_missing_feature</t>
+          <t>Arg173His; Ile178Val; Phe182Tyr; Leu196Ile; Ile259Val; Thr263Val; Met286Ile; Phe299Ile; Ala306Gln; Asp317Glu; Thr322Ser; Lys348Asn; Ile354Met; Ser431Met; possible_missing_feature</t>
         </is>
       </c>
       <c r="FZ5" s="7" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="GE5" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ala168Gln, Ser172Ala</t>
+          <t>possible_missing_feature; Ala168Gln; Ser172Ala</t>
         </is>
       </c>
       <c r="GF5" s="7" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="GN5" s="4" t="inlineStr">
         <is>
-          <t>Ile45Val, Lys55Gln, Glu95Gln, Asp101Glu, GlnGlyLeuGlnVal125LeuGlyIleGlnThr, ThrSer132AlaThr, Ser181Ala, Phe198Tyr, Ser206Asn, Gly211Ala, Ala224Thr, Ala229Glu, Asp244Asn, Glu340Asp, His344Met, MetVal383ThrPhe, Lys438Gly, Val445Ile, Ser452Val, Leu458Met (Fails QC: 39.06%, 25x), Ala462Gln (Fails QC: 40.98%, 25x), Val474Leu (Fails QC: 50.85%, 30x), Leu476Met (Fails QC: 45.16%, 28x), Gly484Ala, Ala562Ser, Ala566Val (POLY), Leu569Gln, Leu726Val, Lys731Gln, Val824Ala, Ser892Ala, Ser896Thr (POLY), Ile903Val, Ile906Leu, MetValSerGlyMetSer913ThrAlaIleGlyLeuPro, possible_missing_feature</t>
+          <t>Ile45Val; Lys55Gln; Glu95Gln; Asp101Glu; GlnGlyLeuGlnVal125LeuGlyIleGlnThr; ThrSer132AlaThr; Ser181Ala; Phe198Tyr; Ser206Asn; Gly211Ala; Ala224Thr; Ala229Glu; Asp244Asn; Glu340Asp; His344Met; MetVal383ThrPhe; Lys438Gly; Val445Ile; Ser452Val; Leu458Met (Fails QC: 39.06%, 25x); Ala462Gln (Fails QC: 40.98%, 25x); Val474Leu (Fails QC: 50.85%, 30x); Leu476Met (Fails QC: 45.16%, 28x); Gly484Ala; Ala562Ser; Ala566Val (POLY); Leu569Gln; Leu726Val; Lys731Gln; Val824Ala; Ser892Ala; Ser896Thr (POLY); Ile903Val; Ile906Leu; MetValSerGlyMetSer913ThrAlaIleGlyLeuPro; possible_missing_feature</t>
         </is>
       </c>
       <c r="GO5" s="7" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="GQ5" s="4" t="inlineStr">
         <is>
-          <t>Gln134Asn, possible_missing_feature</t>
+          <t>Gln134Asn; possible_missing_feature</t>
         </is>
       </c>
       <c r="GR5" s="7" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="HF5" s="4" t="inlineStr">
         <is>
-          <t>Glu19Asp, Ser65Ala, Ser87Leu, Pro105Thr, Ser136Ala, Leu143Val, Asp159Gln, Leu171Ile, IleHis261ValThr, Ser271Ala, Gly279Ala, Thr302Cys, ValGlu315AlaAsp, Thr320Gln, Thr330Ser, Leu336Val, AspGln404GluHis, AlaVal408GlnAla, Met411Ile, Ser417Thr, Val419Ile, Asp426Glu, Glu445Asp, Ala489Glu, Arg494Lys, Thr499Asn, Ala528Thr, Pro543Ala, TyrAlaValPhe549PheAlaValLeu, Pro563Ala, Ser578Thr, Ser588Thr, PheValIle601TyrValVal, Ala627Gly, Asn734Ser, possible_missing_feature</t>
+          <t>Glu19Asp; Ser65Ala; Ser87Leu; Pro105Thr; Ser136Ala; Leu143Val; Asp159Gln; Leu171Ile; IleHis261ValThr; Ser271Ala; Gly279Ala; Thr302Cys; ValGlu315AlaAsp; Thr320Gln; Thr330Ser; Leu336Val; AspGln404GluHis; AlaVal408GlnAla; Met411Ile; Ser417Thr; Val419Ile; Asp426Glu; Glu445Asp; Ala489Glu; Arg494Lys; Thr499Asn; Ala528Thr; Pro543Ala; TyrAlaValPhe549PheAlaValLeu; Pro563Ala; Ser578Thr; Ser588Thr; PheValIle601TyrValVal; Ala627Gly; Asn734Ser; possible_missing_feature</t>
         </is>
       </c>
       <c r="HG5" s="7" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="HI5" s="4" t="inlineStr">
         <is>
-          <t>Thr29Ser, Lys52Arg, Gln60Ala, Asn62His, Ile67Ser, Pro84Ser, ArgValGlu124GlnValArg, Ala133Gly, Arg137Gln, Asp146Ala, Asp148Glu, Ile152Val, Thr154Ser, HisPheTrp165TyrPheSer, Ala176Pro, Val180Ile, Ala316Thr, Glu325Asp, GluHisAla359AlaHisPro, IleGlyLeu363LeuGlyMet, Gly382Ser, Glu407Asp, Met437Leu, Asp462Asn, Ser474Thr, Arg507Gln, Pro511Ala, Asp533Glu (POLY), Glu548Asp, Ala551Val, Leu573Pro, Met604Lys, Ser620Thr, possible_missing_feature</t>
+          <t>Thr29Ser; Lys52Arg; Gln60Ala; Asn62His; Ile67Ser; Pro84Ser; ArgValGlu124GlnValArg; Ala133Gly; Arg137Gln; Asp146Ala; Asp148Glu; Ile152Val; Thr154Ser; HisPheTrp165TyrPheSer; Ala176Pro; Val180Ile; Ala316Thr; Glu325Asp; GluHisAla359AlaHisPro; IleGlyLeu363LeuGlyMet; Gly382Ser; Glu407Asp; Met437Leu; Asp462Asn; Ser474Thr; Arg507Gln; Pro511Ala; Asp533Glu (POLY); Glu548Asp; Ala551Val; Leu573Pro; Met604Lys; Ser620Thr; possible_missing_feature</t>
         </is>
       </c>
       <c r="HJ5" s="7" t="inlineStr">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="HL5" s="4" t="inlineStr">
         <is>
-          <t>Ile41Leu, Ala50Val, Ala162Ser, Ser171Asn, Val179Phe, Phe184Leu, Leu194_Glu197delinsIleSerAsp, Ala203Thr, Arg207Lys, Ile216Val, Gly219Ala, Ile260Val, Gly288Val, Thr291Ala, Phe301Tyr, possible_missing_feature</t>
+          <t>Ile41Leu; Ala50Val; Ala162Ser; Ser171Asn; Val179Phe; Phe184Leu; Leu194_Glu197delinsIleSerAsp; Ala203Thr; Arg207Lys; Ile216Val; Gly219Ala; Ile260Val; Gly288Val; Thr291Ala; Phe301Tyr; possible_missing_feature</t>
         </is>
       </c>
       <c r="HM5" s="7" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>ST775</t>
+          <t>ST775!; ST3341!; ST3942!</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>Ala45Gly, ValProAspLysAspAsn471ThrValThrAlaSerAsp</t>
+          <t>Ala45Gly; ValProAspLysAspAsn471ThrValThrAlaSerAsp</t>
         </is>
       </c>
       <c r="X6" s="3" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="AC6" s="3" t="inlineStr">
         <is>
-          <t>Gly52Ala, Gly135Asp</t>
+          <t>Gly52Ala; Gly135Asp</t>
         </is>
       </c>
       <c r="AD6" s="3" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="AI6" s="4" t="inlineStr">
         <is>
-          <t>Asp43Asn, SerGlySer57GluGlyArg, Glu202Gln, Ile210Ala, Glu230Lys, Ser240Thr, Asn262Thr, Ala267Ser, Ala281Gly, Lys296Gln, Gln301Glu, Arg310Gly, Val359Leu, Gln402fs</t>
+          <t>Asp43Asn; SerGlySer57GluGlyArg; Glu202Gln; Ile210Ala; Glu230Lys; Ser240Thr; Asn262Thr; Ala267Ser; Ala281Gly; Lys296Gln; Gln301Glu; Arg310Gly; Val359Leu; Gln402fs</t>
         </is>
       </c>
       <c r="AJ6" s="4" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AQ6" s="3" t="inlineStr">
         <is>
-          <t>Arg321His, His398Arg (POLY)</t>
+          <t>Arg321His; His398Arg (POLY)</t>
         </is>
       </c>
       <c r="AR6" s="3" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="AW6" s="3" t="inlineStr">
         <is>
-          <t>Ala61Thr, Asp221Asn, Val419Ala, Gly429Ala, Val572Ala</t>
+          <t>Ala61Thr; Asp221Asn; Val419Ala; Gly429Ala; Val572Ala</t>
         </is>
       </c>
       <c r="AX6" s="3" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="BC6" s="3" t="inlineStr">
         <is>
-          <t>Lys329Gln (POLY), Leu331Val (POLY), Trp358Arg (POLY)</t>
+          <t>Lys329Gln (POLY); Leu331Val (POLY); Trp358Arg (POLY)</t>
         </is>
       </c>
       <c r="BD6" s="3" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="BL6" s="3" t="inlineStr">
         <is>
-          <t>Ser26Leu, ArgHisCysProArg29LysHisCysProSer, Ile36Val, Glu42Asp</t>
+          <t>Ser26Leu; ArgHisCysProArg29LysHisCysProSer; Ile36Val; Glu42Asp</t>
         </is>
       </c>
       <c r="BM6" s="3" t="inlineStr">
@@ -6547,7 +6547,7 @@
       </c>
       <c r="BU6" s="3" t="inlineStr">
         <is>
-          <t>Ala190Thr, Asp557Asn, Lys562Asn</t>
+          <t>Ala190Thr; Asp557Asn; Lys562Asn</t>
         </is>
       </c>
       <c r="BV6" s="3" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="BX6" s="3" t="inlineStr">
         <is>
-          <t>Phe28Leu, Leu80Phe</t>
+          <t>Phe28Leu; Leu80Phe</t>
         </is>
       </c>
       <c r="BY6" s="3" t="inlineStr">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="CA6" s="3" t="inlineStr">
         <is>
-          <t>Ser33Pro, Gln148Arg, Ser285Gly</t>
+          <t>Ser33Pro; Gln148Arg; Ser285Gly</t>
         </is>
       </c>
       <c r="CB6" s="3" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="CP6" s="4" t="inlineStr">
         <is>
-          <t>Gln80fs, Phe172Ile (POLY)</t>
+          <t>Gln80fs; Phe172Ile (POLY)</t>
         </is>
       </c>
       <c r="CQ6" s="4" t="inlineStr">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="DT6" s="3" t="inlineStr">
         <is>
-          <t>Gly71Glu (POLY), Ser209Arg (POLY)</t>
+          <t>Gly71Glu (POLY); Ser209Arg (POLY)</t>
         </is>
       </c>
       <c r="DU6" s="3" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="EL6" s="3" t="inlineStr">
         <is>
-          <t>Thr105Ala (POLY), Phe147Leu, Glu247Lys</t>
+          <t>Thr105Ala (POLY); Phe147Leu; Glu247Lys</t>
         </is>
       </c>
       <c r="EM6" s="3" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="EO6" s="3" t="inlineStr">
         <is>
-          <t>Gln9Leu, Ile30Val, Leu254Met</t>
+          <t>Gln9Leu; Ile30Val; Leu254Met</t>
         </is>
       </c>
       <c r="EP6" s="3" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="EX6" s="3" t="inlineStr">
         <is>
-          <t>Met64Leu, Ala103Val, Ser550Thr, Val960Ala, Leu1024Phe, Ser1428Leu, Gln1672Leu, Val1686Gly, Glu1738Ala</t>
+          <t>Met64Leu; Ala103Val; Ser550Thr; Val960Ala; Leu1024Phe; Ser1428Leu; Gln1672Leu; Val1686Gly; Glu1738Ala</t>
         </is>
       </c>
       <c r="EY6" s="3" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="FA6" s="3" t="inlineStr">
         <is>
-          <t>Thr137Ala, Gly526Glu, Asp1001Glu, Ile1278Leu, Val1423Ala</t>
+          <t>Thr137Ala; Gly526Glu; Asp1001Glu; Ile1278Leu; Val1423Ala</t>
         </is>
       </c>
       <c r="FB6" s="3" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="FG6" s="3" t="inlineStr">
         <is>
-          <t>Ser35Asn, Thr42Ala, Ser260Gly</t>
+          <t>Ser35Asn; Thr42Ala; Ser260Gly</t>
         </is>
       </c>
       <c r="FH6" s="3" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="GB6" s="4" t="inlineStr">
         <is>
-          <t>Gln34His, Val154Ile, Val157Leu, Gly631Ala, Thr634Ser, Val709Leu, possible_missing_feature</t>
+          <t>Gln34His; Val154Ile; Val157Leu; Gly631Ala; Thr634Ser; Val709Leu; possible_missing_feature</t>
         </is>
       </c>
       <c r="GC6" s="4" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="GE6" s="3" t="inlineStr">
         <is>
-          <t>Leu83Met, Val104Ile</t>
+          <t>Leu83Met; Val104Ile</t>
         </is>
       </c>
       <c r="GF6" s="3" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="GK6" s="3" t="inlineStr">
         <is>
-          <t>AspMet68GlyVal, Gln267Arg (POLY)</t>
+          <t>AspMet68GlyVal; Gln267Arg (POLY)</t>
         </is>
       </c>
       <c r="GL6" s="3" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="HC6" s="3" t="inlineStr">
         <is>
-          <t>Asp53Gly, Ala154Thr, Glu492Asp</t>
+          <t>Asp53Gly; Ala154Thr; Glu492Asp</t>
         </is>
       </c>
       <c r="HD6" s="3" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="HI6" s="3" t="inlineStr">
         <is>
-          <t>Ala473Val (POLY), Asp533Glu (POLY)</t>
+          <t>Ala473Val (POLY); Asp533Glu (POLY)</t>
         </is>
       </c>
       <c r="HJ6" s="3" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="HR6" s="3" t="inlineStr">
         <is>
-          <t>Leu88Pro (POLY), Asp161Gly (POLY), His182Gln (POLY), Val243Ala (POLY)</t>
+          <t>Leu88Pro (POLY); Asp161Gly (POLY); His182Gln (POLY); Val243Ala (POLY)</t>
         </is>
       </c>
       <c r="HS6" s="3" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>ValProAspLysAspAsn471ThrValThrAlaSerAsp, Val487Leu, Gly524Ala</t>
+          <t>ValProAspLysAspAsn471ThrValThrAlaSerAsp; Val487Leu; Gly524Ala</t>
         </is>
       </c>
       <c r="X7" s="3" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="AF7" s="3" t="inlineStr">
         <is>
-          <t>Val128Ala, Ala370Thr</t>
+          <t>Val128Ala; Ala370Thr</t>
         </is>
       </c>
       <c r="AG7" s="3" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="AI7" s="4" t="inlineStr">
         <is>
-          <t>SerGlySer57GluGlyArg, Asn112fs, Val127Leu (POLY), Glu202Gln, Ile210Ala, Glu230Lys, Ser240Thr, Asn262Thr, Thr276Ala, Ala281Gly, Lys296Gln, Leu347Met, Ser403Ala, Gln424Glu</t>
+          <t>SerGlySer57GluGlyArg; Asn112fs; Val127Leu (POLY); Glu202Gln; Ile210Ala; Glu230Lys; Ser240Thr; Asn262Thr; Thr276Ala; Ala281Gly; Lys296Gln; Leu347Met; Ser403Ala; Gln424Glu</t>
         </is>
       </c>
       <c r="AJ7" s="4" t="inlineStr">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="AQ7" s="3" t="inlineStr">
         <is>
-          <t>Arg356Leu (POLY), His398Arg (POLY)</t>
+          <t>Arg356Leu (POLY); His398Arg (POLY)</t>
         </is>
       </c>
       <c r="AR7" s="3" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="AT7" s="3" t="inlineStr">
         <is>
-          <t>Leu153Arg (POLY), Ser170Asn (POLY)</t>
+          <t>Leu153Arg (POLY); Ser170Asn (POLY)</t>
         </is>
       </c>
       <c r="AU7" s="3" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="AW7" s="3" t="inlineStr">
         <is>
-          <t>Val419Ala, Ile508Val, Val572Ala</t>
+          <t>Val419Ala; Ile508Val; Val572Ala</t>
         </is>
       </c>
       <c r="AX7" s="3" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="AZ7" s="3" t="inlineStr">
         <is>
-          <t>Ile536Val (POLY), Thr543Ala (POLY), Gly589Ala (POLY), Gln840Glu (POLY), Asn1036Thr (POLY), Gln1039Arg (POLY)</t>
+          <t>Ile536Val (POLY); Thr543Ala (POLY); Gly589Ala (POLY); Gln840Glu (POLY); Asn1036Thr (POLY); Gln1039Arg (POLY)</t>
         </is>
       </c>
       <c r="BA7" s="3" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="BC7" s="3" t="inlineStr">
         <is>
-          <t>Lys329Gln (POLY), Leu331Val (POLY), Gly344Asp (POLY), Trp358Arg (POLY)</t>
+          <t>Lys329Gln (POLY); Leu331Val (POLY); Gly344Asp (POLY); Trp358Arg (POLY)</t>
         </is>
       </c>
       <c r="BD7" s="3" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="BU7" s="3" t="inlineStr">
         <is>
-          <t>Ala190Thr, Thr254Ile</t>
+          <t>Ala190Thr; Thr254Ile</t>
         </is>
       </c>
       <c r="BV7" s="3" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="BX7" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Ser172Thr, Lys179Arg, Asn182Lys, Thr248Ala, Val257Ile, SerLys264AlaGln, Asp298Glu, Ser301Asn, Asp304Glu, Glu318Asp</t>
+          <t>possible_missing_feature; Ser172Thr; Lys179Arg; Asn182Lys; Thr248Ala; Val257Ile; SerLys264AlaGln; Asp298Glu; Ser301Asn; Asp304Glu; Glu318Asp</t>
         </is>
       </c>
       <c r="BY7" s="4" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="CA7" s="3" t="inlineStr">
         <is>
-          <t>Ser33Pro, Asp113Gly, Gln148Arg</t>
+          <t>Ser33Pro; Asp113Gly; Gln148Arg</t>
         </is>
       </c>
       <c r="CB7" s="3" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="CD7" s="4" t="inlineStr">
         <is>
-          <t>Leu61Ile, Phe314Cys, Ser329Thr, His333Arg, Ala338Asp, Ala340Gly, Ala356Glu, Leu370Met, possible_missing_feature</t>
+          <t>Leu61Ile; Phe314Cys; Ser329Thr; His333Arg; Ala338Asp; Ala340Gly; Ala356Glu; Leu370Met; possible_missing_feature</t>
         </is>
       </c>
       <c r="CE7" s="4" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="CG7" s="3" t="inlineStr">
         <is>
-          <t>Val32Ala, Ala180Val, Ala413Glu</t>
+          <t>Val32Ala; Ala180Val; Ala413Glu</t>
         </is>
       </c>
       <c r="CH7" s="3" t="inlineStr">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="CP7" s="4" t="inlineStr">
         <is>
-          <t>Gln80fs, Phe172Ile (POLY)</t>
+          <t>Gln80fs; Phe172Ile (POLY)</t>
         </is>
       </c>
       <c r="CQ7" s="4" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="CY7" s="3" t="inlineStr">
         <is>
-          <t>Ala4Thr (POLY), Ser13Pro (POLY)</t>
+          <t>Ala4Thr (POLY); Ser13Pro (POLY)</t>
         </is>
       </c>
       <c r="CZ7" s="3" t="inlineStr">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="DB7" s="3" t="inlineStr">
         <is>
-          <t>Gly31Val, Leu612Phe</t>
+          <t>Gly31Val; Leu612Phe</t>
         </is>
       </c>
       <c r="DC7" s="3" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="DN7" s="3" t="inlineStr">
         <is>
-          <t>Ala212Val, Tyr942Cys</t>
+          <t>Ala212Val; Tyr942Cys</t>
         </is>
       </c>
       <c r="DO7" s="3" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="DT7" s="3" t="inlineStr">
         <is>
-          <t>Gly71Glu (POLY), Ser209Arg (POLY)</t>
+          <t>Gly71Glu (POLY); Ser209Arg (POLY)</t>
         </is>
       </c>
       <c r="DU7" s="3" t="inlineStr">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="EI7" s="3" t="inlineStr">
         <is>
-          <t>Glu114Ala (POLY), Ile251Val (POLY), Gly283Glu (POLY), Met288Arg (POLY)</t>
+          <t>Glu114Ala (POLY); Ile251Val (POLY); Gly283Glu (POLY); Met288Arg (POLY)</t>
         </is>
       </c>
       <c r="EJ7" s="3" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="EL7" s="4" t="inlineStr">
         <is>
-          <t>Thr21Ala (POLY), Thr105Ala (POLY), Val205Leu (POLY), Ser254dup, Gly391Pro (POLY)</t>
+          <t>Thr21Ala (POLY); Thr105Ala (POLY); Val205Leu (POLY); Ser254dup; Gly391Pro (POLY)</t>
         </is>
       </c>
       <c r="EM7" s="4" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="EO7" s="4" t="inlineStr">
         <is>
-          <t>Gln9Leu, Ala23Thr, Arg341fs</t>
+          <t>Gln9Leu; Ala23Thr; Arg341fs</t>
         </is>
       </c>
       <c r="EP7" s="3" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="ER7" s="3" t="inlineStr">
         <is>
-          <t>Leu23Ser, Ile57Thr, Thr102Ala, His137Arg, Val166Leu</t>
+          <t>Leu23Ser; Ile57Thr; Thr102Ala; His137Arg; Val166Leu</t>
         </is>
       </c>
       <c r="ES7" s="3" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="EX7" s="3" t="inlineStr">
         <is>
-          <t>Met64Leu, Arg190Gln, Val274Ala, Val462Ile, Thr527Ser, Ala532Val, Pro645His, ProVal959LeuAla, Leu1024Phe, Thr1174Ala, Pro1506Gln, Arg1594Gly, Val1620Ile, Val1686Gly, Val1717Ala, Glu1738Ala, Pro1740Leu</t>
+          <t>Met64Leu; Arg190Gln; Val274Ala; Val462Ile; Thr527Ser; Ala532Val; Pro645His; ProVal959LeuAla; Leu1024Phe; Thr1174Ala; Pro1506Gln; Arg1594Gly; Val1620Ile; Val1686Gly; Val1717Ala; Glu1738Ala; Pro1740Leu</t>
         </is>
       </c>
       <c r="EY7" s="3" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="FA7" s="3" t="inlineStr">
         <is>
-          <t>Thr97Ala, Thr137Ala, Leu164Phe, His275Arg, Ala351Thr, Gln436Arg, Gly526Glu, Pro603Leu, Asn728Asp, Glu831Gly, Pro868Ala, Asp1001Glu, Ser1055Pro, Val1177Ala, Ala1205Thr, Glu1207Ala, Arg1210Cys, Pro1286Ala, His1344Asp, Val1423Ala</t>
+          <t>Thr97Ala; Thr137Ala; Leu164Phe; His275Arg; Ala351Thr; Gln436Arg; Gly526Glu; Pro603Leu; Asn728Asp; Glu831Gly; Pro868Ala; Asp1001Glu; Ser1055Pro; Val1177Ala; Ala1205Thr; Glu1207Ala; Arg1210Cys; Pro1286Ala; His1344Asp; Val1423Ala</t>
         </is>
       </c>
       <c r="FB7" s="3" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="FG7" s="3" t="inlineStr">
         <is>
-          <t>Gln34Arg, Thr42Ala, Ser260Gly, Glu329Ala, Ala521Thr</t>
+          <t>Gln34Arg; Thr42Ala; Ser260Gly; Glu329Ala; Ala521Thr</t>
         </is>
       </c>
       <c r="FH7" s="3" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="GB7" s="4" t="inlineStr">
         <is>
-          <t>Gln34His, Val154Ile, Val157Leu, possible_missing_feature</t>
+          <t>Gln34His; Val154Ile; Val157Leu; possible_missing_feature</t>
         </is>
       </c>
       <c r="GC7" s="4" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="GN7" s="3" t="inlineStr">
         <is>
-          <t>Val660Ile (POLY), Asn669Asp (POLY), Ser685Gly, Ile703Val (POLY), Ser845Ala (POLY), Ser915Ala, Ile982Val (POLY), Lys1031Arg (POLY), Ser1040Thr (POLY)</t>
+          <t>Val660Ile (POLY); Asn669Asp (POLY); Ser685Gly; Ile703Val (POLY); Ser845Ala (POLY); Ser915Ala; Ile982Val (POLY); Lys1031Arg (POLY); Ser1040Thr (POLY)</t>
         </is>
       </c>
       <c r="GO7" s="3" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="GQ7" s="3" t="inlineStr">
         <is>
-          <t>Arg76Gln (POLY), His310Arg (POLY), Ser330Ala (POLY), Pro383Ser (POLY)</t>
+          <t>Arg76Gln (POLY); His310Arg (POLY); Ser330Ala (POLY); Pro383Ser (POLY)</t>
         </is>
       </c>
       <c r="GR7" s="3" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="GZ7" s="3" t="inlineStr">
         <is>
-          <t>SerArgAla2ProArgThr, Val15Ile (POLY), Gly68Ser (POLY), Tyr345His (POLY)</t>
+          <t>SerArgAla2ProArgThr; Val15Ile (POLY); Gly68Ser (POLY); Tyr345His (POLY)</t>
         </is>
       </c>
       <c r="HA7" s="4" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="HC7" s="3" t="inlineStr">
         <is>
-          <t>Pro2Thr, Trp37Cys, Ala45Val, Asp53Gly, His56Gln, Glu104Ala, Asp307Asn</t>
+          <t>Pro2Thr; Trp37Cys; Ala45Val; Asp53Gly; His56Gln; Glu104Ala; Asp307Asn</t>
         </is>
       </c>
       <c r="HD7" s="3" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="HR7" s="3" t="inlineStr">
         <is>
-          <t>Cys40Arg (POLY), Leu88Pro (POLY), Ser112Asn (POLY), Asp119Glu (POLY), Ile237Val (POLY), ValPro243AlaLeu</t>
+          <t>Cys40Arg (POLY); Leu88Pro (POLY); Ser112Asn (POLY); Asp119Glu (POLY); Ile237Val (POLY); ValPro243AlaLeu</t>
         </is>
       </c>
       <c r="HS7" s="3" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>ST244</t>
+          <t>ST244!; ST986!; ST1818!; ST3461!; ST3674!</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>ValProAspLysAspAsn471ThrValThrAlaSerAsp, Val487Leu, Val672Ala</t>
+          <t>ValProAspLysAspAsn471ThrValThrAlaSerAsp; Val487Leu; Val672Ala</t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="Z8" s="4" t="inlineStr">
         <is>
-          <t>Glu185_Arg189del, Ala219Thr (POLY)</t>
+          <t>Glu185_Arg189del; Ala219Thr (POLY)</t>
         </is>
       </c>
       <c r="AA8" s="4" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="AW8" s="3" t="inlineStr">
         <is>
-          <t>Pro272Ser, His292Tyr, Val419Ala, Val572Ala</t>
+          <t>Pro272Ser; His292Tyr; Val419Ala; Val572Ala</t>
         </is>
       </c>
       <c r="AX8" s="3" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="AZ8" s="3" t="inlineStr">
         <is>
-          <t>Thr543Ala (POLY), Gln840Glu (POLY)</t>
+          <t>Thr543Ala (POLY); Gln840Glu (POLY)</t>
         </is>
       </c>
       <c r="BA8" s="3" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="BC8" s="3" t="inlineStr">
         <is>
-          <t>Ser217Ala (Fails QC: 37.5%, 15x), Lys329Gln (POLY), Leu331Val (POLY), Trp358Arg (POLY)</t>
+          <t>Ser217Ala (Fails QC: 37.5%, 15x); Lys329Gln (POLY); Leu331Val (POLY); Trp358Arg (POLY)</t>
         </is>
       </c>
       <c r="BD8" s="3" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="BL8" s="3" t="inlineStr">
         <is>
-          <t>Ser26Leu, ArgHisCysProArg29LysHisCysProSer, Ile36Val, Glu42Asp</t>
+          <t>Ser26Leu; ArgHisCysProArg29LysHisCysProSer; Ile36Val; Glu42Asp</t>
         </is>
       </c>
       <c r="BM8" s="3" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="BO8" s="3" t="inlineStr">
         <is>
-          <t>Arg346His, Ser612Ala</t>
+          <t>Arg346His; Ser612Ala</t>
         </is>
       </c>
       <c r="BP8" s="3" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="BU8" s="3" t="inlineStr">
         <is>
-          <t>Pro152Ser, Ala190Thr, Val271Leu, Lys562Asn</t>
+          <t>Pro152Ser; Ala190Thr; Val271Leu; Lys562Asn</t>
         </is>
       </c>
       <c r="BV8" s="3" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="CA8" s="3" t="inlineStr">
         <is>
-          <t>Gly41Glu, Gln148Arg</t>
+          <t>Gly41Glu; Gln148Arg</t>
         </is>
       </c>
       <c r="CB8" s="3" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="CM8" s="3" t="inlineStr">
         <is>
-          <t>Ala75Val (POLY), Asp249Asn (POLY)</t>
+          <t>Ala75Val (POLY); Asp249Asn (POLY)</t>
         </is>
       </c>
       <c r="CN8" s="4" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="CP8" s="4" t="inlineStr">
         <is>
-          <t>Pro60Ser (POLY), Gln80fs, Phe172Ile (POLY), Pro226_Leu229del</t>
+          <t>Pro60Ser (POLY); Gln80fs; Phe172Ile (POLY); Pro226_Leu229del</t>
         </is>
       </c>
       <c r="CQ8" s="4" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="DB8" s="3" t="inlineStr">
         <is>
-          <t>Asn239Ile, Gly383Ser, Leu612Phe</t>
+          <t>Asn239Ile; Gly383Ser; Leu612Phe</t>
         </is>
       </c>
       <c r="DC8" s="3" t="inlineStr">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="EF8" s="3" t="inlineStr">
         <is>
-          <t>Met297Val (POLY), Ala303Val (POLY)</t>
+          <t>Met297Val (POLY); Ala303Val (POLY)</t>
         </is>
       </c>
       <c r="EG8" s="3" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="EO8" s="4" t="inlineStr">
         <is>
-          <t>Gln9Leu, Ile30Val, Arg341fs</t>
+          <t>Gln9Leu; Ile30Val; Arg341fs</t>
         </is>
       </c>
       <c r="EP8" s="3" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="EX8" s="3" t="inlineStr">
         <is>
-          <t>Met64Leu, Trp101Arg, Val625Ala, Ala640Asp, Ala717Met, Leu1024Phe, Thr1174Ala, Pro1506Gln, Arg1594Gly, Val1620Ile, Glu1683Lys, Val1686Gly, Val1717Ala</t>
+          <t>Met64Leu; Trp101Arg; Val625Ala; Ala640Asp; Ala717Met; Leu1024Phe; Thr1174Ala; Pro1506Gln; Arg1594Gly; Val1620Ile; Glu1683Lys; Val1686Gly; Val1717Ala</t>
         </is>
       </c>
       <c r="EY8" s="3" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="FA8" s="3" t="inlineStr">
         <is>
-          <t>Asp100Ala, Leu164Phe, Ser177Pro, Gly526Glu, Asp1001Glu, Val1177Ala, Ala1205Thr, Glu1207Ala, Val1423Ala</t>
+          <t>Asp100Ala; Leu164Phe; Ser177Pro; Gly526Glu; Asp1001Glu; Val1177Ala; Ala1205Thr; Glu1207Ala; Val1423Ala</t>
         </is>
       </c>
       <c r="FB8" s="3" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="FG8" s="3" t="inlineStr">
         <is>
-          <t>Ser35Asn, Thr42Ala, Ser260Gly</t>
+          <t>Ser35Asn; Thr42Ala; Ser260Gly</t>
         </is>
       </c>
       <c r="FH8" s="3" t="inlineStr">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="GH8" s="3" t="inlineStr">
         <is>
-          <t>Arg11Leu (POLY), Gly148Ala (POLY), Arg164His, Asp183Tyr (POLY)</t>
+          <t>Arg11Leu (POLY); Gly148Ala (POLY); Arg164His; Asp183Tyr (POLY)</t>
         </is>
       </c>
       <c r="GI8" s="3" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="GQ8" s="3" t="inlineStr">
         <is>
-          <t>Arg76Gln (POLY), His310Arg (POLY), Ser330Ala (POLY), Pro383Ser (POLY)</t>
+          <t>Arg76Gln (POLY); His310Arg (POLY); Ser330Ala (POLY); Pro383Ser (POLY)</t>
         </is>
       </c>
       <c r="GR8" s="3" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="HC8" s="3" t="inlineStr">
         <is>
-          <t>Pro2Thr, Asn5Thr, Leu28Val, Ala45Val, Asp53Gly, Ala154Thr, Asp296Ala</t>
+          <t>Pro2Thr; Asn5Thr; Leu28Val; Ala45Val; Asp53Gly; Ala154Thr; Asp296Ala</t>
         </is>
       </c>
       <c r="HD8" s="3" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="HR8" s="3" t="inlineStr">
         <is>
-          <t>Leu88Pro (POLY), Gly157Asp (POLY), Asp161Gly (POLY), His182Gln (POLY), Val243Ala (POLY)</t>
+          <t>Leu88Pro (POLY); Gly157Asp (POLY); Asp161Gly (POLY); His182Gln (POLY); Val243Ala (POLY)</t>
         </is>
       </c>
       <c r="HS8" s="3" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>Leu25Trp, ValProAspLysAspAsn471ThrValThrAlaSerAsp, Val487Leu</t>
+          <t>Leu25Trp; ValProAspLysAspAsn471ThrValThrAlaSerAsp; Val487Leu</t>
         </is>
       </c>
       <c r="X9" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="AW9" s="3" t="inlineStr">
         <is>
-          <t>Arg48His, Ala61Thr, Val339Met, Val419Ala, Thr541Ser, Val572Ala, Ser612Asn</t>
+          <t>Arg48His; Ala61Thr; Val339Met; Val419Ala; Thr541Ser; Val572Ala; Ser612Asn</t>
         </is>
       </c>
       <c r="AX9" s="3" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="AZ9" s="3" t="inlineStr">
         <is>
-          <t>Val206Leu, Thr543Ala (POLY), Val980Ile (POLY)</t>
+          <t>Val206Leu; Thr543Ala (POLY); Val980Ile (POLY)</t>
         </is>
       </c>
       <c r="BA9" s="3" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="BC9" s="3" t="inlineStr">
         <is>
-          <t>Lys329Gln (POLY), Leu331Val (POLY), Trp358Arg (POLY)</t>
+          <t>Lys329Gln (POLY); Leu331Val (POLY); Trp358Arg (POLY)</t>
         </is>
       </c>
       <c r="BD9" s="3" t="inlineStr">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="BL9" s="3" t="inlineStr">
         <is>
-          <t>Ser26Leu, ArgHisCysProArg29LysHisCysProSer, Ile36Val, Glu42Asp</t>
+          <t>Ser26Leu; ArgHisCysProArg29LysHisCysProSer; Ile36Val; Glu42Asp</t>
         </is>
       </c>
       <c r="BM9" s="3" t="inlineStr">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="BU9" s="3" t="inlineStr">
         <is>
-          <t>Ala190Thr, Lys562Asn, Arg623Trp</t>
+          <t>Ala190Thr; Lys562Asn; Arg623Trp</t>
         </is>
       </c>
       <c r="BV9" s="3" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="CD9" s="4" t="inlineStr">
         <is>
-          <t>Leu83Met, Arg228Gln, Glu288Arg, Val294Ala, Tyr299Phe, Val490Leu, Leu508Val, possible_missing_feature</t>
+          <t>Leu83Met; Arg228Gln; Glu288Arg; Val294Ala; Tyr299Phe; Val490Leu; Leu508Val; possible_missing_feature</t>
         </is>
       </c>
       <c r="CE9" s="4" t="inlineStr">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="CG9" s="4" t="inlineStr">
         <is>
-          <t>possible_missing_feature, Leu14Ile, Ala86Thr, His159Gln</t>
+          <t>possible_missing_feature; Leu14Ile; Ala86Thr; His159Gln</t>
         </is>
       </c>
       <c r="CH9" s="4" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="CP9" s="4" t="inlineStr">
         <is>
-          <t>Pro60Ser (POLY), Gln80fs, Phe172Ile (POLY)</t>
+          <t>Pro60Ser (POLY); Gln80fs; Phe172Ile (POLY)</t>
         </is>
       </c>
       <c r="CQ9" s="4" t="inlineStr">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="DT9" s="3" t="inlineStr">
         <is>
-          <t>Gly71Glu (POLY), Ala186Thr (POLY)</t>
+          <t>Gly71Glu (POLY); Ala186Thr (POLY)</t>
         </is>
       </c>
       <c r="DU9" s="4" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="EF9" s="3" t="inlineStr">
         <is>
-          <t>Met297Val (POLY), Ala303Val (POLY)</t>
+          <t>Met297Val (POLY); Ala303Val (POLY)</t>
         </is>
       </c>
       <c r="EG9" s="3" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="EL9" s="3" t="inlineStr">
         <is>
-          <t>Arg79Gln (POLY), Thr105Ala (POLY)</t>
+          <t>Arg79Gln (POLY); Thr105Ala (POLY)</t>
         </is>
       </c>
       <c r="EM9" s="3" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="EO9" s="4" t="inlineStr">
         <is>
-          <t>Gln9Leu, Ile30Val, Arg341fs</t>
+          <t>Gln9Leu; Ile30Val; Arg341fs</t>
         </is>
       </c>
       <c r="EP9" s="3" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="ER9" s="3" t="inlineStr">
         <is>
-          <t>Leu23Ser, Ile57Thr, Thr102Ala, His137Arg</t>
+          <t>Leu23Ser; Ile57Thr; Thr102Ala; His137Arg</t>
         </is>
       </c>
       <c r="ES9" s="3" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="EU9" s="3" t="inlineStr">
         <is>
-          <t>Ala138Thr, Met352Thr</t>
+          <t>Ala138Thr; Met352Thr</t>
         </is>
       </c>
       <c r="EV9" s="3" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="EX9" s="3" t="inlineStr">
         <is>
-          <t>Met64Leu, Ala103Val, Leu1024Phe, Thr1174Ala, Glu1683Lys, Val1686Gly, Val1717Ala, Ser1798Phe</t>
+          <t>Met64Leu; Ala103Val; Leu1024Phe; Thr1174Ala; Glu1683Lys; Val1686Gly; Val1717Ala; Ser1798Phe</t>
         </is>
       </c>
       <c r="EY9" s="3" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="FA9" s="3" t="inlineStr">
         <is>
-          <t>Asp100Ala, Leu164Phe, Ser177Pro, Asp180Val, Ala277Thr, Gly526Glu, Asp1001Glu, Ile1278Leu, Val1423Ala</t>
+          <t>Asp100Ala; Leu164Phe; Ser177Pro; Asp180Val; Ala277Thr; Gly526Glu; Asp1001Glu; Ile1278Leu; Val1423Ala</t>
         </is>
       </c>
       <c r="FB9" s="3" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="GN9" s="3" t="inlineStr">
         <is>
-          <t>Arg540Gly (POLY), Ser845Ala (POLY)</t>
+          <t>Arg540Gly (POLY); Ser845Ala (POLY)</t>
         </is>
       </c>
       <c r="GO9" s="3" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="HC9" s="3" t="inlineStr">
         <is>
-          <t>Asp53Gly, Gly340Ser, Glu492Asp</t>
+          <t>Asp53Gly; Gly340Ser; Glu492Asp</t>
         </is>
       </c>
       <c r="HD9" s="3" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="HR9" s="3" t="inlineStr">
         <is>
-          <t>Leu88Pro (POLY), Asp119Glu (POLY)</t>
+          <t>Leu88Pro (POLY); Asp119Glu (POLY)</t>
         </is>
       </c>
       <c r="HS9" s="3" t="inlineStr">
